--- a/BackTest/2019-10-19 BackTest BTC.xlsx
+++ b/BackTest/2019-10-19 BackTest BTC.xlsx
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -20751,20 +20751,14 @@
         <v>9413633.333333334</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
       </c>
-      <c r="J582" t="n">
-        <v>9398000</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L582" t="inlineStr"/>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -20792,20 +20786,14 @@
         <v>9413283.333333334</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>9393000</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L583" t="inlineStr"/>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -20833,20 +20821,14 @@
         <v>9413050</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>9385000</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L584" t="inlineStr"/>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -20874,20 +20856,14 @@
         <v>9412650</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
       </c>
-      <c r="J585" t="n">
-        <v>9394000</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L585" t="inlineStr"/>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -20915,20 +20891,14 @@
         <v>9412266.666666666</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
       </c>
-      <c r="J586" t="n">
-        <v>9393000</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L586" t="inlineStr"/>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -20956,20 +20926,14 @@
         <v>9411916.666666666</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
       </c>
-      <c r="J587" t="n">
-        <v>9392000</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L587" t="inlineStr"/>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -20997,20 +20961,14 @@
         <v>9411500</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
       </c>
-      <c r="J588" t="n">
-        <v>9392000</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L588" t="inlineStr"/>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21044,12 +21002,12 @@
         <v>0</v>
       </c>
       <c r="J589" t="n">
-        <v>9388000</v>
+        <v>9391000</v>
       </c>
       <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M589" t="n">
@@ -21167,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="J592" t="n">
-        <v>9398000</v>
+        <v>9397000</v>
       </c>
       <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr">
@@ -21249,7 +21207,7 @@
         <v>0</v>
       </c>
       <c r="J594" t="n">
-        <v>9395000</v>
+        <v>9396000</v>
       </c>
       <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr">
@@ -21284,14 +21242,12 @@
         <v>9409133.333333334</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
       </c>
-      <c r="J595" t="n">
-        <v>9397000</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr">
         <is>
@@ -21325,14 +21281,12 @@
         <v>9408850</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
       </c>
-      <c r="J596" t="n">
-        <v>9394000</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
       <c r="L596" t="inlineStr">
         <is>
@@ -21366,14 +21320,12 @@
         <v>9408550</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
       </c>
-      <c r="J597" t="n">
-        <v>9394000</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr">
         <is>
@@ -21407,14 +21359,12 @@
         <v>9408150</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="J598" t="n">
-        <v>9394000</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr">
         <is>
@@ -21448,14 +21398,12 @@
         <v>9407833.333333334</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
       </c>
-      <c r="J599" t="n">
-        <v>9398000</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
@@ -21489,14 +21437,12 @@
         <v>9407516.666666666</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="n">
-        <v>9395000</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
@@ -21530,14 +21476,12 @@
         <v>9407400</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
       </c>
-      <c r="J601" t="n">
-        <v>9397000</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
@@ -21571,14 +21515,12 @@
         <v>9407166.666666666</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
       </c>
-      <c r="J602" t="n">
-        <v>9410000</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
@@ -21612,14 +21554,12 @@
         <v>9406966.666666666</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
       </c>
-      <c r="J603" t="n">
-        <v>9406000</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
@@ -21653,14 +21593,12 @@
         <v>9406566.666666666</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="n">
-        <v>9406000</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
@@ -21694,14 +21632,12 @@
         <v>9406300</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
       </c>
-      <c r="J605" t="n">
-        <v>9406000</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
@@ -21735,14 +21671,12 @@
         <v>9406116.666666666</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
       </c>
-      <c r="J606" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr">
         <is>
@@ -21776,14 +21710,12 @@
         <v>9405833.333333334</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
       </c>
-      <c r="J607" t="n">
-        <v>9409000</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr">
         <is>
@@ -21817,14 +21749,12 @@
         <v>9405400</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
       </c>
-      <c r="J608" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
@@ -21858,14 +21788,12 @@
         <v>9405000</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
       </c>
-      <c r="J609" t="n">
-        <v>9398000</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
@@ -21899,14 +21827,12 @@
         <v>9404666.666666666</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
       </c>
-      <c r="J610" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr">
         <is>
@@ -21940,14 +21866,12 @@
         <v>9404433.333333334</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
       </c>
-      <c r="J611" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
@@ -21981,14 +21905,12 @@
         <v>9404183.333333334</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
       </c>
-      <c r="J612" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr">
         <is>
@@ -22022,14 +21944,12 @@
         <v>9403866.666666666</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
       </c>
-      <c r="J613" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr">
         <is>
@@ -22063,14 +21983,12 @@
         <v>9403550</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
       </c>
-      <c r="J614" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr">
         <is>
@@ -22104,14 +22022,12 @@
         <v>9403183.333333334</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
       </c>
-      <c r="J615" t="n">
-        <v>9398000</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
         <is>
@@ -22145,14 +22061,12 @@
         <v>9402750</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
       </c>
-      <c r="J616" t="n">
-        <v>9395000</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr">
         <is>
@@ -22186,14 +22100,12 @@
         <v>9402333.333333334</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
       </c>
-      <c r="J617" t="n">
-        <v>9396000</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr">
         <is>
@@ -22227,14 +22139,12 @@
         <v>9402033.333333334</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
       </c>
-      <c r="J618" t="n">
-        <v>9396000</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr">
         <is>
@@ -22268,14 +22178,12 @@
         <v>9401783.333333334</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
       </c>
-      <c r="J619" t="n">
-        <v>9396000</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr">
         <is>
@@ -22309,14 +22217,12 @@
         <v>9401433.333333334</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
       </c>
-      <c r="J620" t="n">
-        <v>9399000</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr">
         <is>
@@ -22350,14 +22256,12 @@
         <v>9401166.666666666</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
-      <c r="J621" t="n">
-        <v>9397000</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr">
         <is>
@@ -22391,14 +22295,12 @@
         <v>9400850</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
       </c>
-      <c r="J622" t="n">
-        <v>9396000</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr">
         <is>
@@ -22432,14 +22334,12 @@
         <v>9400583.333333334</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="n">
-        <v>9395000</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr">
         <is>
@@ -22473,14 +22373,12 @@
         <v>9400316.666666666</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
       </c>
-      <c r="J624" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr">
         <is>
@@ -22514,14 +22412,12 @@
         <v>9400016.666666666</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>9403000</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
@@ -22555,14 +22451,12 @@
         <v>9399816.666666666</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="n">
-        <v>9398000</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr">
         <is>
@@ -22596,14 +22490,12 @@
         <v>9399650</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="n">
-        <v>9399000</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr">
         <is>
@@ -22637,14 +22529,12 @@
         <v>9399450</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
       </c>
-      <c r="J628" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
@@ -22678,14 +22568,12 @@
         <v>9399216.666666666</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr">
         <is>
@@ -22719,14 +22607,12 @@
         <v>9399000</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr">
         <is>
@@ -22760,14 +22646,12 @@
         <v>9398900</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
-      <c r="J631" t="n">
-        <v>9397000</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr">
         <is>
@@ -22801,14 +22685,12 @@
         <v>9398883.333333334</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
       </c>
-      <c r="J632" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr">
         <is>
@@ -22842,14 +22724,12 @@
         <v>9398716.666666666</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
       </c>
-      <c r="J633" t="n">
-        <v>9403000</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
@@ -22883,14 +22763,12 @@
         <v>9398466.666666666</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
       </c>
-      <c r="J634" t="n">
-        <v>9394000</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>
@@ -22924,14 +22802,12 @@
         <v>9398300</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
       </c>
-      <c r="J635" t="n">
-        <v>9392000</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr">
         <is>
@@ -22965,14 +22841,12 @@
         <v>9398200</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
       </c>
-      <c r="J636" t="n">
-        <v>9392000</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr">
         <is>
@@ -23006,14 +22880,12 @@
         <v>9398150</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
       </c>
-      <c r="J637" t="n">
-        <v>9392000</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr">
         <is>
@@ -23047,14 +22919,12 @@
         <v>9398033.333333334</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
       </c>
-      <c r="J638" t="n">
-        <v>9394000</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr">
         <is>
@@ -23088,14 +22958,12 @@
         <v>9397950</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
       </c>
-      <c r="J639" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
@@ -23129,14 +22997,12 @@
         <v>9397850</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
       </c>
-      <c r="J640" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr">
         <is>
@@ -23170,14 +23036,12 @@
         <v>9397833.333333334</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
       </c>
-      <c r="J641" t="n">
-        <v>9398000</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
@@ -23211,14 +23075,12 @@
         <v>9397850</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
       </c>
-      <c r="J642" t="n">
-        <v>9395000</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
@@ -23252,14 +23114,12 @@
         <v>9397933.333333334</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
       </c>
-      <c r="J643" t="n">
-        <v>9394000</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
@@ -23293,14 +23153,12 @@
         <v>9397866.666666666</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
       </c>
-      <c r="J644" t="n">
-        <v>9389000</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
@@ -23334,14 +23192,12 @@
         <v>9397900</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
       </c>
-      <c r="J645" t="n">
-        <v>9389000</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
@@ -23375,14 +23231,12 @@
         <v>9397883.333333334</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
       </c>
-      <c r="J646" t="n">
-        <v>9394000</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
@@ -23416,14 +23270,12 @@
         <v>9397916.666666666</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
       </c>
-      <c r="J647" t="n">
-        <v>9389000</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
@@ -23457,14 +23309,12 @@
         <v>9397983.333333334</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
       </c>
-      <c r="J648" t="n">
-        <v>9391000</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
@@ -23498,14 +23348,12 @@
         <v>9398050</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
       </c>
-      <c r="J649" t="n">
-        <v>9394000</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
@@ -23539,14 +23387,12 @@
         <v>9397933.333333334</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
       </c>
-      <c r="J650" t="n">
-        <v>9396000</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
       <c r="L650" t="inlineStr">
         <is>
@@ -23580,14 +23426,12 @@
         <v>9397883.333333334</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
       </c>
-      <c r="J651" t="n">
-        <v>9394000</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
       <c r="L651" t="inlineStr">
         <is>
@@ -23621,14 +23465,12 @@
         <v>9397866.666666666</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
       </c>
-      <c r="J652" t="n">
-        <v>9394000</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr">
         <is>
@@ -23662,14 +23504,12 @@
         <v>9397866.666666666</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
       </c>
-      <c r="J653" t="n">
-        <v>9394000</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
       <c r="L653" t="inlineStr">
         <is>
@@ -23703,14 +23543,12 @@
         <v>9397950</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
       </c>
-      <c r="J654" t="n">
-        <v>9395000</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
       <c r="L654" t="inlineStr">
         <is>
@@ -23744,14 +23582,12 @@
         <v>9398033.333333334</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
       </c>
-      <c r="J655" t="n">
-        <v>9396000</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
       <c r="L655" t="inlineStr">
         <is>
@@ -23785,14 +23621,12 @@
         <v>9398016.666666666</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
       </c>
-      <c r="J656" t="n">
-        <v>9399000</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
       <c r="L656" t="inlineStr">
         <is>
@@ -23826,14 +23660,12 @@
         <v>9398033.333333334</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
       </c>
-      <c r="J657" t="n">
-        <v>9398000</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
       <c r="L657" t="inlineStr">
         <is>
@@ -23867,14 +23699,12 @@
         <v>9398050</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
       </c>
-      <c r="J658" t="n">
-        <v>9399000</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
       <c r="L658" t="inlineStr">
         <is>
@@ -23908,14 +23738,12 @@
         <v>9398100</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
       </c>
-      <c r="J659" t="n">
-        <v>9398000</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
       <c r="L659" t="inlineStr">
         <is>
@@ -23949,14 +23777,12 @@
         <v>9398200</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
       </c>
-      <c r="J660" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
       <c r="L660" t="inlineStr">
         <is>
@@ -23990,14 +23816,12 @@
         <v>9398066.666666666</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
       </c>
-      <c r="J661" t="n">
-        <v>9403000</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
       <c r="L661" t="inlineStr">
         <is>
@@ -24031,14 +23855,12 @@
         <v>9398050</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
       </c>
-      <c r="J662" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
       <c r="L662" t="inlineStr">
         <is>
@@ -24072,14 +23894,12 @@
         <v>9397983.333333334</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
       </c>
-      <c r="J663" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
       <c r="L663" t="inlineStr">
         <is>
@@ -24113,14 +23933,12 @@
         <v>9398016.666666666</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
       </c>
-      <c r="J664" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
       <c r="L664" t="inlineStr">
         <is>
@@ -24154,14 +23972,12 @@
         <v>9397950</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
       </c>
-      <c r="J665" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr">
         <is>
@@ -24195,14 +24011,12 @@
         <v>9397866.666666666</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
       </c>
-      <c r="J666" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
       <c r="L666" t="inlineStr">
         <is>
@@ -24236,14 +24050,12 @@
         <v>9397950</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
       </c>
-      <c r="J667" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
       <c r="L667" t="inlineStr">
         <is>
@@ -24277,14 +24089,12 @@
         <v>9398283.333333334</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
       </c>
-      <c r="J668" t="n">
-        <v>9411000</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
       <c r="L668" t="inlineStr">
         <is>
@@ -24318,14 +24128,12 @@
         <v>9398716.666666666</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
       </c>
-      <c r="J669" t="n">
-        <v>9420000</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
       <c r="L669" t="inlineStr">
         <is>
@@ -24359,14 +24167,12 @@
         <v>9399050</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
       </c>
-      <c r="J670" t="n">
-        <v>9423000</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
       <c r="L670" t="inlineStr">
         <is>
@@ -30640,14 +30446,12 @@
         <v>9408683.333333334</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I831" t="n">
         <v>0</v>
       </c>
-      <c r="J831" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr"/>
       <c r="L831" t="inlineStr">
         <is>
@@ -30681,14 +30485,12 @@
         <v>9408383.333333334</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="n">
         <v>0</v>
       </c>
-      <c r="J832" t="n">
-        <v>9404000</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr"/>
       <c r="L832" t="inlineStr">
         <is>
@@ -30722,14 +30524,12 @@
         <v>9408250</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I833" t="n">
         <v>0</v>
       </c>
-      <c r="J833" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr"/>
       <c r="L833" t="inlineStr">
         <is>
@@ -30763,14 +30563,12 @@
         <v>9408050</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I834" t="n">
         <v>0</v>
       </c>
-      <c r="J834" t="n">
-        <v>9412000</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr"/>
       <c r="L834" t="inlineStr">
         <is>
@@ -30804,14 +30602,12 @@
         <v>9407916.666666666</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I835" t="n">
         <v>0</v>
       </c>
-      <c r="J835" t="n">
-        <v>9410000</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
       <c r="L835" t="inlineStr">
         <is>
@@ -31001,14 +30797,12 @@
         <v>9407516.666666666</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I840" t="n">
         <v>0</v>
       </c>
-      <c r="J840" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr"/>
       <c r="L840" t="inlineStr">
         <is>
@@ -31042,14 +30836,12 @@
         <v>9407466.666666666</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I841" t="n">
         <v>0</v>
       </c>
-      <c r="J841" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr"/>
       <c r="L841" t="inlineStr">
         <is>
@@ -31083,14 +30875,12 @@
         <v>9407266.666666666</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I842" t="n">
         <v>0</v>
       </c>
-      <c r="J842" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
       <c r="L842" t="inlineStr">
         <is>
@@ -31124,14 +30914,12 @@
         <v>9407183.333333334</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I843" t="n">
         <v>0</v>
       </c>
-      <c r="J843" t="n">
-        <v>9396000</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr"/>
       <c r="L843" t="inlineStr">
         <is>
@@ -31165,14 +30953,12 @@
         <v>9407033.333333334</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I844" t="n">
         <v>0</v>
       </c>
-      <c r="J844" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr"/>
       <c r="L844" t="inlineStr">
         <is>
@@ -31206,14 +30992,12 @@
         <v>9406950</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I845" t="n">
         <v>0</v>
       </c>
-      <c r="J845" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr"/>
       <c r="L845" t="inlineStr">
         <is>
@@ -31247,14 +31031,12 @@
         <v>9406866.666666666</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I846" t="n">
         <v>0</v>
       </c>
-      <c r="J846" t="n">
-        <v>9404000</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr"/>
       <c r="L846" t="inlineStr">
         <is>
@@ -31288,14 +31070,12 @@
         <v>9406716.666666666</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I847" t="n">
         <v>0</v>
       </c>
-      <c r="J847" t="n">
-        <v>9404000</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr"/>
       <c r="L847" t="inlineStr">
         <is>
@@ -31329,14 +31109,12 @@
         <v>9406666.666666666</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I848" t="n">
         <v>0</v>
       </c>
-      <c r="J848" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr"/>
       <c r="L848" t="inlineStr">
         <is>
@@ -31370,14 +31148,12 @@
         <v>9406650</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I849" t="n">
         <v>0</v>
       </c>
-      <c r="J849" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr"/>
       <c r="L849" t="inlineStr">
         <is>
@@ -31411,14 +31187,12 @@
         <v>9406483.333333334</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I850" t="n">
         <v>0</v>
       </c>
-      <c r="J850" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr"/>
       <c r="L850" t="inlineStr">
         <is>
@@ -31452,14 +31226,12 @@
         <v>9406400</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I851" t="n">
         <v>0</v>
       </c>
-      <c r="J851" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr"/>
       <c r="L851" t="inlineStr">
         <is>
@@ -31493,14 +31265,12 @@
         <v>9406450</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I852" t="n">
         <v>0</v>
       </c>
-      <c r="J852" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr"/>
       <c r="L852" t="inlineStr">
         <is>
@@ -31534,14 +31304,12 @@
         <v>9406433.333333334</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I853" t="n">
         <v>0</v>
       </c>
-      <c r="J853" t="n">
-        <v>9408000</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr"/>
       <c r="L853" t="inlineStr">
         <is>
@@ -31575,14 +31343,12 @@
         <v>9406350</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I854" t="n">
         <v>0</v>
       </c>
-      <c r="J854" t="n">
-        <v>9404000</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr"/>
       <c r="L854" t="inlineStr">
         <is>
@@ -31616,14 +31382,12 @@
         <v>9406200</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I855" t="n">
         <v>0</v>
       </c>
-      <c r="J855" t="n">
-        <v>9401000</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr"/>
       <c r="L855" t="inlineStr">
         <is>
@@ -31657,14 +31421,12 @@
         <v>9406033.333333334</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I856" t="n">
         <v>0</v>
       </c>
-      <c r="J856" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr"/>
       <c r="L856" t="inlineStr">
         <is>
@@ -31698,14 +31460,12 @@
         <v>9405983.333333334</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I857" t="n">
         <v>0</v>
       </c>
-      <c r="J857" t="n">
-        <v>9403000</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr"/>
       <c r="L857" t="inlineStr">
         <is>
@@ -31739,14 +31499,12 @@
         <v>9406016.666666666</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I858" t="n">
         <v>0</v>
       </c>
-      <c r="J858" t="n">
-        <v>9408000</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr"/>
       <c r="L858" t="inlineStr">
         <is>
@@ -31780,14 +31538,12 @@
         <v>9405983.333333334</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I859" t="n">
         <v>0</v>
       </c>
-      <c r="J859" t="n">
-        <v>9409000</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr"/>
       <c r="L859" t="inlineStr">
         <is>
@@ -31821,14 +31577,12 @@
         <v>9406216.666666666</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I860" t="n">
         <v>0</v>
       </c>
-      <c r="J860" t="n">
-        <v>9411000</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr"/>
       <c r="L860" t="inlineStr">
         <is>
@@ -31862,14 +31616,12 @@
         <v>9406316.666666666</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I861" t="n">
         <v>0</v>
       </c>
-      <c r="J861" t="n">
-        <v>9420000</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr"/>
       <c r="L861" t="inlineStr">
         <is>
@@ -31903,14 +31655,12 @@
         <v>9406350</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I862" t="n">
         <v>0</v>
       </c>
-      <c r="J862" t="n">
-        <v>9418000</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr"/>
       <c r="L862" t="inlineStr">
         <is>
@@ -34167,14 +33917,12 @@
         <v>9411683.333333334</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I920" t="n">
         <v>0</v>
       </c>
-      <c r="J920" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr"/>
       <c r="L920" t="inlineStr">
         <is>
@@ -34286,14 +34034,12 @@
         <v>9411066.666666666</v>
       </c>
       <c r="H923" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I923" t="n">
         <v>0</v>
       </c>
-      <c r="J923" t="n">
-        <v>9403000</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr"/>
       <c r="L923" t="inlineStr">
         <is>
@@ -34327,14 +34073,12 @@
         <v>9410800</v>
       </c>
       <c r="H924" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I924" t="n">
         <v>0</v>
       </c>
-      <c r="J924" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr"/>
       <c r="L924" t="inlineStr">
         <is>
@@ -34368,14 +34112,12 @@
         <v>9410700</v>
       </c>
       <c r="H925" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I925" t="n">
         <v>0</v>
       </c>
-      <c r="J925" t="n">
-        <v>9403000</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr"/>
       <c r="L925" t="inlineStr">
         <is>
@@ -34409,14 +34151,12 @@
         <v>9410500</v>
       </c>
       <c r="H926" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I926" t="n">
         <v>0</v>
       </c>
-      <c r="J926" t="n">
-        <v>9409000</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr"/>
       <c r="L926" t="inlineStr">
         <is>
@@ -34450,14 +34190,12 @@
         <v>9410300</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I927" t="n">
         <v>0</v>
       </c>
-      <c r="J927" t="n">
-        <v>9404000</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr"/>
       <c r="L927" t="inlineStr">
         <is>
@@ -34491,14 +34229,12 @@
         <v>9410133.333333334</v>
       </c>
       <c r="H928" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I928" t="n">
         <v>0</v>
       </c>
-      <c r="J928" t="n">
-        <v>9406000</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr"/>
       <c r="L928" t="inlineStr">
         <is>
@@ -34532,14 +34268,12 @@
         <v>9409966.666666666</v>
       </c>
       <c r="H929" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I929" t="n">
         <v>0</v>
       </c>
-      <c r="J929" t="n">
-        <v>9410000</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr"/>
       <c r="L929" t="inlineStr">
         <is>
@@ -34573,14 +34307,12 @@
         <v>9409850</v>
       </c>
       <c r="H930" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I930" t="n">
         <v>0</v>
       </c>
-      <c r="J930" t="n">
-        <v>9412000</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr"/>
       <c r="L930" t="inlineStr">
         <is>
@@ -34692,14 +34424,12 @@
         <v>9409333.333333334</v>
       </c>
       <c r="H933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I933" t="n">
         <v>0</v>
       </c>
-      <c r="J933" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr"/>
       <c r="L933" t="inlineStr">
         <is>
@@ -34733,14 +34463,12 @@
         <v>9409183.333333334</v>
       </c>
       <c r="H934" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I934" t="n">
         <v>0</v>
       </c>
-      <c r="J934" t="n">
-        <v>9407000</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr"/>
       <c r="L934" t="inlineStr">
         <is>
@@ -34774,14 +34502,12 @@
         <v>9409016.666666666</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I935" t="n">
         <v>0</v>
       </c>
-      <c r="J935" t="n">
-        <v>9406000</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr"/>
       <c r="L935" t="inlineStr">
         <is>
@@ -34815,14 +34541,12 @@
         <v>9409083.333333334</v>
       </c>
       <c r="H936" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I936" t="n">
         <v>0</v>
       </c>
-      <c r="J936" t="n">
-        <v>9406000</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr"/>
       <c r="L936" t="inlineStr">
         <is>
@@ -34856,14 +34580,12 @@
         <v>9409066.666666666</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I937" t="n">
         <v>0</v>
       </c>
-      <c r="J937" t="n">
-        <v>9419000</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr"/>
       <c r="L937" t="inlineStr">
         <is>
@@ -35680,16 +35402,18 @@
         <v>0</v>
       </c>
       <c r="I958" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr"/>
       <c r="L958" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M958" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M958" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" s="1" t="n">
@@ -35717,11 +35441,15 @@
         <v>0</v>
       </c>
       <c r="I959" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr"/>
-      <c r="L959" t="inlineStr"/>
+      <c r="L959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M959" t="n">
         <v>1</v>
       </c>
@@ -35752,11 +35480,15 @@
         <v>0</v>
       </c>
       <c r="I960" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr"/>
-      <c r="L960" t="inlineStr"/>
+      <c r="L960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M960" t="n">
         <v>1</v>
       </c>
@@ -35787,11 +35519,15 @@
         <v>0</v>
       </c>
       <c r="I961" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr"/>
-      <c r="L961" t="inlineStr"/>
+      <c r="L961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M961" t="n">
         <v>1</v>
       </c>
@@ -35822,11 +35558,15 @@
         <v>0</v>
       </c>
       <c r="I962" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr"/>
-      <c r="L962" t="inlineStr"/>
+      <c r="L962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M962" t="n">
         <v>1</v>
       </c>
@@ -35861,7 +35601,11 @@
       </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr"/>
-      <c r="L963" t="inlineStr"/>
+      <c r="L963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M963" t="n">
         <v>1</v>
       </c>
@@ -35896,7 +35640,11 @@
       </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr"/>
-      <c r="L964" t="inlineStr"/>
+      <c r="L964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M964" t="n">
         <v>1</v>
       </c>
@@ -35931,7 +35679,11 @@
       </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr"/>
-      <c r="L965" t="inlineStr"/>
+      <c r="L965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M965" t="n">
         <v>1</v>
       </c>
@@ -35966,7 +35718,11 @@
       </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr"/>
-      <c r="L966" t="inlineStr"/>
+      <c r="L966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M966" t="n">
         <v>1</v>
       </c>
@@ -36001,7 +35757,11 @@
       </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr"/>
-      <c r="L967" t="inlineStr"/>
+      <c r="L967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M967" t="n">
         <v>1</v>
       </c>
@@ -36036,7 +35796,11 @@
       </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr"/>
-      <c r="L968" t="inlineStr"/>
+      <c r="L968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M968" t="n">
         <v>1</v>
       </c>
@@ -36071,7 +35835,11 @@
       </c>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr"/>
-      <c r="L969" t="inlineStr"/>
+      <c r="L969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M969" t="n">
         <v>1</v>
       </c>
@@ -36106,7 +35874,11 @@
       </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr"/>
-      <c r="L970" t="inlineStr"/>
+      <c r="L970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M970" t="n">
         <v>1</v>
       </c>
@@ -36141,7 +35913,11 @@
       </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr"/>
-      <c r="L971" t="inlineStr"/>
+      <c r="L971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M971" t="n">
         <v>1</v>
       </c>
@@ -36172,11 +35948,15 @@
         <v>0</v>
       </c>
       <c r="I972" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr"/>
-      <c r="L972" t="inlineStr"/>
+      <c r="L972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M972" t="n">
         <v>1</v>
       </c>
@@ -36211,7 +35991,11 @@
       </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr"/>
-      <c r="L973" t="inlineStr"/>
+      <c r="L973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M973" t="n">
         <v>1</v>
       </c>
@@ -36246,7 +36030,11 @@
       </c>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr"/>
-      <c r="L974" t="inlineStr"/>
+      <c r="L974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M974" t="n">
         <v>1</v>
       </c>
@@ -36281,7 +36069,11 @@
       </c>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr"/>
-      <c r="L975" t="inlineStr"/>
+      <c r="L975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M975" t="n">
         <v>1</v>
       </c>
@@ -36312,11 +36104,15 @@
         <v>0</v>
       </c>
       <c r="I976" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr"/>
-      <c r="L976" t="inlineStr"/>
+      <c r="L976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M976" t="n">
         <v>1</v>
       </c>
@@ -36351,7 +36147,11 @@
       </c>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr"/>
-      <c r="L977" t="inlineStr"/>
+      <c r="L977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M977" t="n">
         <v>1</v>
       </c>
@@ -36386,7 +36186,11 @@
       </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr"/>
-      <c r="L978" t="inlineStr"/>
+      <c r="L978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M978" t="n">
         <v>1</v>
       </c>
@@ -36421,7 +36225,11 @@
       </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr"/>
-      <c r="L979" t="inlineStr"/>
+      <c r="L979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M979" t="n">
         <v>1</v>
       </c>
@@ -36456,7 +36264,11 @@
       </c>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr"/>
-      <c r="L980" t="inlineStr"/>
+      <c r="L980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M980" t="n">
         <v>1</v>
       </c>
@@ -36491,7 +36303,11 @@
       </c>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr"/>
-      <c r="L981" t="inlineStr"/>
+      <c r="L981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M981" t="n">
         <v>1</v>
       </c>
@@ -36526,7 +36342,11 @@
       </c>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr"/>
-      <c r="L982" t="inlineStr"/>
+      <c r="L982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M982" t="n">
         <v>1</v>
       </c>
@@ -36561,7 +36381,11 @@
       </c>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr"/>
-      <c r="L983" t="inlineStr"/>
+      <c r="L983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M983" t="n">
         <v>1</v>
       </c>
@@ -36596,7 +36420,11 @@
       </c>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr"/>
-      <c r="L984" t="inlineStr"/>
+      <c r="L984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M984" t="n">
         <v>1</v>
       </c>
@@ -36631,7 +36459,11 @@
       </c>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr"/>
-      <c r="L985" t="inlineStr"/>
+      <c r="L985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M985" t="n">
         <v>1</v>
       </c>
@@ -36666,7 +36498,11 @@
       </c>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr"/>
-      <c r="L986" t="inlineStr"/>
+      <c r="L986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M986" t="n">
         <v>1</v>
       </c>
@@ -36701,7 +36537,11 @@
       </c>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr"/>
-      <c r="L987" t="inlineStr"/>
+      <c r="L987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M987" t="n">
         <v>1</v>
       </c>
@@ -36736,7 +36576,11 @@
       </c>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr"/>
-      <c r="L988" t="inlineStr"/>
+      <c r="L988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M988" t="n">
         <v>1</v>
       </c>
@@ -36771,7 +36615,11 @@
       </c>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr"/>
-      <c r="L989" t="inlineStr"/>
+      <c r="L989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M989" t="n">
         <v>1</v>
       </c>
@@ -36806,7 +36654,11 @@
       </c>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr"/>
-      <c r="L990" t="inlineStr"/>
+      <c r="L990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M990" t="n">
         <v>1</v>
       </c>
@@ -36841,7 +36693,11 @@
       </c>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr"/>
-      <c r="L991" t="inlineStr"/>
+      <c r="L991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M991" t="n">
         <v>1</v>
       </c>
@@ -36876,7 +36732,11 @@
       </c>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr"/>
-      <c r="L992" t="inlineStr"/>
+      <c r="L992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M992" t="n">
         <v>1</v>
       </c>
@@ -36911,7 +36771,11 @@
       </c>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr"/>
-      <c r="L993" t="inlineStr"/>
+      <c r="L993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M993" t="n">
         <v>1</v>
       </c>
@@ -36946,7 +36810,11 @@
       </c>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr"/>
-      <c r="L994" t="inlineStr"/>
+      <c r="L994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M994" t="n">
         <v>1</v>
       </c>
@@ -36981,7 +36849,11 @@
       </c>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr"/>
-      <c r="L995" t="inlineStr"/>
+      <c r="L995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M995" t="n">
         <v>1</v>
       </c>
@@ -37016,7 +36888,11 @@
       </c>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr"/>
-      <c r="L996" t="inlineStr"/>
+      <c r="L996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M996" t="n">
         <v>1</v>
       </c>
@@ -37051,7 +36927,11 @@
       </c>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr"/>
-      <c r="L997" t="inlineStr"/>
+      <c r="L997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M997" t="n">
         <v>1</v>
       </c>
@@ -37086,7 +36966,11 @@
       </c>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr"/>
-      <c r="L998" t="inlineStr"/>
+      <c r="L998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M998" t="n">
         <v>1</v>
       </c>
@@ -37121,7 +37005,11 @@
       </c>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr"/>
-      <c r="L999" t="inlineStr"/>
+      <c r="L999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M999" t="n">
         <v>1</v>
       </c>
@@ -37156,7 +37044,11 @@
       </c>
       <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr"/>
-      <c r="L1000" t="inlineStr"/>
+      <c r="L1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1000" t="n">
         <v>1</v>
       </c>
@@ -37191,7 +37083,11 @@
       </c>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr"/>
-      <c r="L1001" t="inlineStr"/>
+      <c r="L1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1001" t="n">
         <v>1</v>
       </c>
@@ -37226,7 +37122,11 @@
       </c>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr"/>
-      <c r="L1002" t="inlineStr"/>
+      <c r="L1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1002" t="n">
         <v>1</v>
       </c>
@@ -37261,7 +37161,11 @@
       </c>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr"/>
-      <c r="L1003" t="inlineStr"/>
+      <c r="L1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1003" t="n">
         <v>1</v>
       </c>
@@ -37296,7 +37200,11 @@
       </c>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr"/>
-      <c r="L1004" t="inlineStr"/>
+      <c r="L1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1004" t="n">
         <v>1</v>
       </c>
@@ -37331,7 +37239,11 @@
       </c>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr"/>
-      <c r="L1005" t="inlineStr"/>
+      <c r="L1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1005" t="n">
         <v>1</v>
       </c>
@@ -37366,7 +37278,11 @@
       </c>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr"/>
-      <c r="L1006" t="inlineStr"/>
+      <c r="L1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1006" t="n">
         <v>1</v>
       </c>
@@ -37401,7 +37317,11 @@
       </c>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr"/>
-      <c r="L1007" t="inlineStr"/>
+      <c r="L1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1007" t="n">
         <v>1</v>
       </c>
@@ -37436,7 +37356,11 @@
       </c>
       <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr"/>
-      <c r="L1008" t="inlineStr"/>
+      <c r="L1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1008" t="n">
         <v>1</v>
       </c>
@@ -37471,7 +37395,11 @@
       </c>
       <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr"/>
-      <c r="L1009" t="inlineStr"/>
+      <c r="L1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1009" t="n">
         <v>1</v>
       </c>
@@ -37506,7 +37434,11 @@
       </c>
       <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr"/>
-      <c r="L1010" t="inlineStr"/>
+      <c r="L1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1010" t="n">
         <v>1</v>
       </c>
@@ -37541,7 +37473,11 @@
       </c>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr"/>
-      <c r="L1011" t="inlineStr"/>
+      <c r="L1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1011" t="n">
         <v>1</v>
       </c>
@@ -37576,7 +37512,11 @@
       </c>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr"/>
-      <c r="L1012" t="inlineStr"/>
+      <c r="L1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1012" t="n">
         <v>1</v>
       </c>
@@ -37611,7 +37551,11 @@
       </c>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr"/>
-      <c r="L1013" t="inlineStr"/>
+      <c r="L1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1013" t="n">
         <v>1</v>
       </c>
@@ -37646,7 +37590,11 @@
       </c>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr"/>
-      <c r="L1014" t="inlineStr"/>
+      <c r="L1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1014" t="n">
         <v>1</v>
       </c>
@@ -37681,7 +37629,11 @@
       </c>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr"/>
-      <c r="L1015" t="inlineStr"/>
+      <c r="L1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1015" t="n">
         <v>1</v>
       </c>
@@ -37716,7 +37668,11 @@
       </c>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr"/>
-      <c r="L1016" t="inlineStr"/>
+      <c r="L1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1016" t="n">
         <v>1</v>
       </c>
@@ -37751,7 +37707,11 @@
       </c>
       <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr"/>
-      <c r="L1017" t="inlineStr"/>
+      <c r="L1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1017" t="n">
         <v>1</v>
       </c>
@@ -37786,7 +37746,11 @@
       </c>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr"/>
-      <c r="L1018" t="inlineStr"/>
+      <c r="L1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1018" t="n">
         <v>1</v>
       </c>
@@ -37821,7 +37785,11 @@
       </c>
       <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr"/>
-      <c r="L1019" t="inlineStr"/>
+      <c r="L1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1019" t="n">
         <v>1</v>
       </c>
@@ -37856,7 +37824,11 @@
       </c>
       <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr"/>
-      <c r="L1020" t="inlineStr"/>
+      <c r="L1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1020" t="n">
         <v>1</v>
       </c>
@@ -37891,7 +37863,11 @@
       </c>
       <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr"/>
-      <c r="L1021" t="inlineStr"/>
+      <c r="L1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1021" t="n">
         <v>1</v>
       </c>
@@ -37926,7 +37902,11 @@
       </c>
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr"/>
-      <c r="L1022" t="inlineStr"/>
+      <c r="L1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1022" t="n">
         <v>1</v>
       </c>
@@ -37961,7 +37941,11 @@
       </c>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr"/>
-      <c r="L1023" t="inlineStr"/>
+      <c r="L1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1023" t="n">
         <v>1</v>
       </c>
@@ -37996,7 +37980,11 @@
       </c>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr"/>
-      <c r="L1024" t="inlineStr"/>
+      <c r="L1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1024" t="n">
         <v>1</v>
       </c>
@@ -38031,7 +38019,11 @@
       </c>
       <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr"/>
-      <c r="L1025" t="inlineStr"/>
+      <c r="L1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1025" t="n">
         <v>1</v>
       </c>
@@ -38066,7 +38058,11 @@
       </c>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr"/>
-      <c r="L1026" t="inlineStr"/>
+      <c r="L1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1026" t="n">
         <v>1</v>
       </c>
@@ -38101,7 +38097,11 @@
       </c>
       <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr"/>
-      <c r="L1027" t="inlineStr"/>
+      <c r="L1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1027" t="n">
         <v>1</v>
       </c>
@@ -38136,7 +38136,11 @@
       </c>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr"/>
-      <c r="L1028" t="inlineStr"/>
+      <c r="L1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1028" t="n">
         <v>1</v>
       </c>
@@ -38171,7 +38175,11 @@
       </c>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr"/>
-      <c r="L1029" t="inlineStr"/>
+      <c r="L1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1029" t="n">
         <v>1</v>
       </c>
@@ -38206,7 +38214,11 @@
       </c>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr"/>
-      <c r="L1030" t="inlineStr"/>
+      <c r="L1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1030" t="n">
         <v>1</v>
       </c>
@@ -38241,7 +38253,11 @@
       </c>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr"/>
-      <c r="L1031" t="inlineStr"/>
+      <c r="L1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1031" t="n">
         <v>1</v>
       </c>
@@ -38276,7 +38292,11 @@
       </c>
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr"/>
-      <c r="L1032" t="inlineStr"/>
+      <c r="L1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1032" t="n">
         <v>1</v>
       </c>
@@ -38311,7 +38331,11 @@
       </c>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr"/>
-      <c r="L1033" t="inlineStr"/>
+      <c r="L1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1033" t="n">
         <v>1</v>
       </c>
@@ -38346,7 +38370,11 @@
       </c>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr"/>
-      <c r="L1034" t="inlineStr"/>
+      <c r="L1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1034" t="n">
         <v>1</v>
       </c>
@@ -38381,7 +38409,11 @@
       </c>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr"/>
-      <c r="L1035" t="inlineStr"/>
+      <c r="L1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1035" t="n">
         <v>1</v>
       </c>
@@ -38416,7 +38448,11 @@
       </c>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr"/>
-      <c r="L1036" t="inlineStr"/>
+      <c r="L1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1036" t="n">
         <v>1</v>
       </c>
@@ -38451,7 +38487,11 @@
       </c>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr"/>
-      <c r="L1037" t="inlineStr"/>
+      <c r="L1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1037" t="n">
         <v>1</v>
       </c>
@@ -38486,7 +38526,11 @@
       </c>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr"/>
-      <c r="L1038" t="inlineStr"/>
+      <c r="L1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1038" t="n">
         <v>1</v>
       </c>
@@ -38521,7 +38565,11 @@
       </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr"/>
-      <c r="L1039" t="inlineStr"/>
+      <c r="L1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1039" t="n">
         <v>1</v>
       </c>
@@ -38556,7 +38604,11 @@
       </c>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr"/>
-      <c r="L1040" t="inlineStr"/>
+      <c r="L1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1040" t="n">
         <v>1</v>
       </c>
@@ -38591,7 +38643,11 @@
       </c>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr"/>
-      <c r="L1041" t="inlineStr"/>
+      <c r="L1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1041" t="n">
         <v>1</v>
       </c>
@@ -38626,7 +38682,11 @@
       </c>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr"/>
-      <c r="L1042" t="inlineStr"/>
+      <c r="L1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1042" t="n">
         <v>1</v>
       </c>
@@ -38661,7 +38721,11 @@
       </c>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr"/>
-      <c r="L1043" t="inlineStr"/>
+      <c r="L1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1043" t="n">
         <v>1</v>
       </c>
@@ -38696,7 +38760,11 @@
       </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr"/>
-      <c r="L1044" t="inlineStr"/>
+      <c r="L1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1044" t="n">
         <v>1</v>
       </c>
@@ -38731,7 +38799,11 @@
       </c>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr"/>
-      <c r="L1045" t="inlineStr"/>
+      <c r="L1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1045" t="n">
         <v>1</v>
       </c>
@@ -38766,7 +38838,11 @@
       </c>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr"/>
-      <c r="L1046" t="inlineStr"/>
+      <c r="L1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1046" t="n">
         <v>1</v>
       </c>
@@ -38801,7 +38877,11 @@
       </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr"/>
-      <c r="L1047" t="inlineStr"/>
+      <c r="L1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1047" t="n">
         <v>1</v>
       </c>
@@ -38836,7 +38916,11 @@
       </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr"/>
-      <c r="L1048" t="inlineStr"/>
+      <c r="L1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1048" t="n">
         <v>1</v>
       </c>
@@ -38871,7 +38955,11 @@
       </c>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr"/>
-      <c r="L1049" t="inlineStr"/>
+      <c r="L1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1049" t="n">
         <v>1</v>
       </c>
@@ -38906,7 +38994,11 @@
       </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr"/>
-      <c r="L1050" t="inlineStr"/>
+      <c r="L1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1050" t="n">
         <v>1</v>
       </c>
@@ -38941,7 +39033,11 @@
       </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr"/>
-      <c r="L1051" t="inlineStr"/>
+      <c r="L1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1051" t="n">
         <v>1</v>
       </c>
@@ -38976,7 +39072,11 @@
       </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr"/>
-      <c r="L1052" t="inlineStr"/>
+      <c r="L1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1052" t="n">
         <v>1</v>
       </c>
@@ -39011,7 +39111,11 @@
       </c>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr"/>
-      <c r="L1053" t="inlineStr"/>
+      <c r="L1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1053" t="n">
         <v>1</v>
       </c>
@@ -39046,7 +39150,11 @@
       </c>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr"/>
-      <c r="L1054" t="inlineStr"/>
+      <c r="L1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1054" t="n">
         <v>1</v>
       </c>
@@ -39081,7 +39189,11 @@
       </c>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr"/>
-      <c r="L1055" t="inlineStr"/>
+      <c r="L1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1055" t="n">
         <v>1</v>
       </c>
@@ -39116,7 +39228,11 @@
       </c>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr"/>
-      <c r="L1056" t="inlineStr"/>
+      <c r="L1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1056" t="n">
         <v>1</v>
       </c>
@@ -39151,7 +39267,11 @@
       </c>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr"/>
-      <c r="L1057" t="inlineStr"/>
+      <c r="L1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1057" t="n">
         <v>1</v>
       </c>
@@ -39186,7 +39306,11 @@
       </c>
       <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr"/>
-      <c r="L1058" t="inlineStr"/>
+      <c r="L1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1058" t="n">
         <v>1</v>
       </c>
@@ -39221,7 +39345,11 @@
       </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr"/>
-      <c r="L1059" t="inlineStr"/>
+      <c r="L1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1059" t="n">
         <v>1</v>
       </c>
@@ -39256,7 +39384,11 @@
       </c>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr"/>
-      <c r="L1060" t="inlineStr"/>
+      <c r="L1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1060" t="n">
         <v>1</v>
       </c>
@@ -39291,7 +39423,11 @@
       </c>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr"/>
-      <c r="L1061" t="inlineStr"/>
+      <c r="L1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1061" t="n">
         <v>1</v>
       </c>
@@ -39326,7 +39462,11 @@
       </c>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr"/>
-      <c r="L1062" t="inlineStr"/>
+      <c r="L1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1062" t="n">
         <v>1</v>
       </c>
@@ -39361,7 +39501,11 @@
       </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr"/>
-      <c r="L1063" t="inlineStr"/>
+      <c r="L1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1063" t="n">
         <v>1</v>
       </c>
@@ -39396,7 +39540,11 @@
       </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr"/>
-      <c r="L1064" t="inlineStr"/>
+      <c r="L1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1064" t="n">
         <v>1</v>
       </c>
@@ -39431,7 +39579,11 @@
       </c>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr"/>
-      <c r="L1065" t="inlineStr"/>
+      <c r="L1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1065" t="n">
         <v>1</v>
       </c>
@@ -39466,7 +39618,11 @@
       </c>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr"/>
-      <c r="L1066" t="inlineStr"/>
+      <c r="L1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1066" t="n">
         <v>1</v>
       </c>
@@ -39501,7 +39657,11 @@
       </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr"/>
-      <c r="L1067" t="inlineStr"/>
+      <c r="L1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1067" t="n">
         <v>1</v>
       </c>
@@ -39536,7 +39696,11 @@
       </c>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr"/>
-      <c r="L1068" t="inlineStr"/>
+      <c r="L1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1068" t="n">
         <v>1</v>
       </c>
@@ -39571,7 +39735,11 @@
       </c>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr"/>
-      <c r="L1069" t="inlineStr"/>
+      <c r="L1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1069" t="n">
         <v>1</v>
       </c>
@@ -39606,7 +39774,11 @@
       </c>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr"/>
-      <c r="L1070" t="inlineStr"/>
+      <c r="L1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1070" t="n">
         <v>1</v>
       </c>
@@ -39641,7 +39813,11 @@
       </c>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr"/>
-      <c r="L1071" t="inlineStr"/>
+      <c r="L1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1071" t="n">
         <v>1</v>
       </c>
@@ -39676,7 +39852,11 @@
       </c>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr"/>
-      <c r="L1072" t="inlineStr"/>
+      <c r="L1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1072" t="n">
         <v>1</v>
       </c>
@@ -39711,7 +39891,11 @@
       </c>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr"/>
-      <c r="L1073" t="inlineStr"/>
+      <c r="L1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1073" t="n">
         <v>1</v>
       </c>
@@ -39746,7 +39930,11 @@
       </c>
       <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr"/>
-      <c r="L1074" t="inlineStr"/>
+      <c r="L1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1074" t="n">
         <v>1</v>
       </c>
@@ -39781,7 +39969,11 @@
       </c>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr"/>
-      <c r="L1075" t="inlineStr"/>
+      <c r="L1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1075" t="n">
         <v>1</v>
       </c>
@@ -39816,7 +40008,11 @@
       </c>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr"/>
-      <c r="L1076" t="inlineStr"/>
+      <c r="L1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1076" t="n">
         <v>1</v>
       </c>
@@ -39851,7 +40047,11 @@
       </c>
       <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr"/>
-      <c r="L1077" t="inlineStr"/>
+      <c r="L1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1077" t="n">
         <v>1</v>
       </c>
@@ -39886,7 +40086,11 @@
       </c>
       <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr"/>
-      <c r="L1078" t="inlineStr"/>
+      <c r="L1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1078" t="n">
         <v>1</v>
       </c>
@@ -39921,7 +40125,11 @@
       </c>
       <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr"/>
-      <c r="L1079" t="inlineStr"/>
+      <c r="L1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1079" t="n">
         <v>1</v>
       </c>
@@ -39956,7 +40164,11 @@
       </c>
       <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr"/>
-      <c r="L1080" t="inlineStr"/>
+      <c r="L1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1080" t="n">
         <v>1</v>
       </c>
@@ -39991,7 +40203,11 @@
       </c>
       <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr"/>
-      <c r="L1081" t="inlineStr"/>
+      <c r="L1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1081" t="n">
         <v>1</v>
       </c>
@@ -40026,7 +40242,11 @@
       </c>
       <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr"/>
-      <c r="L1082" t="inlineStr"/>
+      <c r="L1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1082" t="n">
         <v>1</v>
       </c>
@@ -40061,7 +40281,11 @@
       </c>
       <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr"/>
-      <c r="L1083" t="inlineStr"/>
+      <c r="L1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1083" t="n">
         <v>1</v>
       </c>
@@ -40096,7 +40320,11 @@
       </c>
       <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr"/>
-      <c r="L1084" t="inlineStr"/>
+      <c r="L1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1084" t="n">
         <v>1</v>
       </c>
@@ -40131,7 +40359,11 @@
       </c>
       <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr"/>
-      <c r="L1085" t="inlineStr"/>
+      <c r="L1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1085" t="n">
         <v>1</v>
       </c>
@@ -40166,7 +40398,11 @@
       </c>
       <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr"/>
-      <c r="L1086" t="inlineStr"/>
+      <c r="L1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1086" t="n">
         <v>1</v>
       </c>
@@ -40201,7 +40437,11 @@
       </c>
       <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr"/>
-      <c r="L1087" t="inlineStr"/>
+      <c r="L1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1087" t="n">
         <v>1</v>
       </c>
@@ -40236,7 +40476,11 @@
       </c>
       <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr"/>
-      <c r="L1088" t="inlineStr"/>
+      <c r="L1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1088" t="n">
         <v>1</v>
       </c>
@@ -40271,7 +40515,11 @@
       </c>
       <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr"/>
-      <c r="L1089" t="inlineStr"/>
+      <c r="L1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1089" t="n">
         <v>1</v>
       </c>
@@ -40306,7 +40554,11 @@
       </c>
       <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr"/>
-      <c r="L1090" t="inlineStr"/>
+      <c r="L1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1090" t="n">
         <v>1</v>
       </c>
@@ -40341,7 +40593,11 @@
       </c>
       <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr"/>
-      <c r="L1091" t="inlineStr"/>
+      <c r="L1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1091" t="n">
         <v>1</v>
       </c>
@@ -40376,7 +40632,11 @@
       </c>
       <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr"/>
-      <c r="L1092" t="inlineStr"/>
+      <c r="L1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1092" t="n">
         <v>1</v>
       </c>
@@ -40411,7 +40671,11 @@
       </c>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr"/>
-      <c r="L1093" t="inlineStr"/>
+      <c r="L1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1093" t="n">
         <v>1</v>
       </c>
@@ -40446,7 +40710,11 @@
       </c>
       <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr"/>
-      <c r="L1094" t="inlineStr"/>
+      <c r="L1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1094" t="n">
         <v>1</v>
       </c>
@@ -40481,7 +40749,11 @@
       </c>
       <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr"/>
-      <c r="L1095" t="inlineStr"/>
+      <c r="L1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1095" t="n">
         <v>1</v>
       </c>
@@ -40516,7 +40788,11 @@
       </c>
       <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr"/>
-      <c r="L1096" t="inlineStr"/>
+      <c r="L1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1096" t="n">
         <v>1</v>
       </c>
@@ -40551,7 +40827,11 @@
       </c>
       <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr"/>
-      <c r="L1097" t="inlineStr"/>
+      <c r="L1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1097" t="n">
         <v>1</v>
       </c>
@@ -40586,7 +40866,11 @@
       </c>
       <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr"/>
-      <c r="L1098" t="inlineStr"/>
+      <c r="L1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1098" t="n">
         <v>1</v>
       </c>
@@ -40621,7 +40905,11 @@
       </c>
       <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr"/>
-      <c r="L1099" t="inlineStr"/>
+      <c r="L1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1099" t="n">
         <v>1</v>
       </c>
@@ -40656,7 +40944,11 @@
       </c>
       <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr"/>
-      <c r="L1100" t="inlineStr"/>
+      <c r="L1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1100" t="n">
         <v>1</v>
       </c>
@@ -40691,7 +40983,11 @@
       </c>
       <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr"/>
-      <c r="L1101" t="inlineStr"/>
+      <c r="L1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1101" t="n">
         <v>1</v>
       </c>
@@ -40726,7 +41022,11 @@
       </c>
       <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr"/>
-      <c r="L1102" t="inlineStr"/>
+      <c r="L1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1102" t="n">
         <v>1</v>
       </c>
@@ -40761,7 +41061,11 @@
       </c>
       <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr"/>
-      <c r="L1103" t="inlineStr"/>
+      <c r="L1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1103" t="n">
         <v>1</v>
       </c>
@@ -40796,7 +41100,11 @@
       </c>
       <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr"/>
-      <c r="L1104" t="inlineStr"/>
+      <c r="L1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1104" t="n">
         <v>1</v>
       </c>
@@ -40831,7 +41139,11 @@
       </c>
       <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr"/>
-      <c r="L1105" t="inlineStr"/>
+      <c r="L1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1105" t="n">
         <v>1</v>
       </c>
@@ -40866,7 +41178,11 @@
       </c>
       <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr"/>
-      <c r="L1106" t="inlineStr"/>
+      <c r="L1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1106" t="n">
         <v>1</v>
       </c>
@@ -40901,7 +41217,11 @@
       </c>
       <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr"/>
-      <c r="L1107" t="inlineStr"/>
+      <c r="L1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1107" t="n">
         <v>1</v>
       </c>
@@ -40936,7 +41256,11 @@
       </c>
       <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr"/>
-      <c r="L1108" t="inlineStr"/>
+      <c r="L1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1108" t="n">
         <v>1</v>
       </c>
@@ -40971,7 +41295,11 @@
       </c>
       <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr"/>
-      <c r="L1109" t="inlineStr"/>
+      <c r="L1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1109" t="n">
         <v>1</v>
       </c>
@@ -41006,7 +41334,11 @@
       </c>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr"/>
-      <c r="L1110" t="inlineStr"/>
+      <c r="L1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1110" t="n">
         <v>1</v>
       </c>
@@ -41041,7 +41373,11 @@
       </c>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr"/>
-      <c r="L1111" t="inlineStr"/>
+      <c r="L1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1111" t="n">
         <v>1</v>
       </c>
@@ -41076,7 +41412,11 @@
       </c>
       <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr"/>
-      <c r="L1112" t="inlineStr"/>
+      <c r="L1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1112" t="n">
         <v>1</v>
       </c>
@@ -41111,7 +41451,11 @@
       </c>
       <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr"/>
-      <c r="L1113" t="inlineStr"/>
+      <c r="L1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1113" t="n">
         <v>1</v>
       </c>
@@ -41146,7 +41490,11 @@
       </c>
       <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr"/>
-      <c r="L1114" t="inlineStr"/>
+      <c r="L1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1114" t="n">
         <v>1</v>
       </c>
@@ -41181,7 +41529,11 @@
       </c>
       <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr"/>
-      <c r="L1115" t="inlineStr"/>
+      <c r="L1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1115" t="n">
         <v>1</v>
       </c>
@@ -41216,7 +41568,11 @@
       </c>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr"/>
-      <c r="L1116" t="inlineStr"/>
+      <c r="L1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1116" t="n">
         <v>1</v>
       </c>
@@ -41251,7 +41607,11 @@
       </c>
       <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr"/>
-      <c r="L1117" t="inlineStr"/>
+      <c r="L1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1117" t="n">
         <v>1</v>
       </c>
@@ -41286,7 +41646,11 @@
       </c>
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr"/>
-      <c r="L1118" t="inlineStr"/>
+      <c r="L1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1118" t="n">
         <v>1</v>
       </c>
@@ -41321,7 +41685,11 @@
       </c>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr"/>
-      <c r="L1119" t="inlineStr"/>
+      <c r="L1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1119" t="n">
         <v>1</v>
       </c>
@@ -41356,7 +41724,11 @@
       </c>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr"/>
-      <c r="L1120" t="inlineStr"/>
+      <c r="L1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1120" t="n">
         <v>1</v>
       </c>
@@ -41391,7 +41763,11 @@
       </c>
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr"/>
-      <c r="L1121" t="inlineStr"/>
+      <c r="L1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1121" t="n">
         <v>1</v>
       </c>
@@ -41426,7 +41802,11 @@
       </c>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr"/>
-      <c r="L1122" t="inlineStr"/>
+      <c r="L1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1122" t="n">
         <v>1</v>
       </c>
@@ -41461,7 +41841,11 @@
       </c>
       <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr"/>
-      <c r="L1123" t="inlineStr"/>
+      <c r="L1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1123" t="n">
         <v>1</v>
       </c>
@@ -41496,7 +41880,11 @@
       </c>
       <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr"/>
-      <c r="L1124" t="inlineStr"/>
+      <c r="L1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1124" t="n">
         <v>1</v>
       </c>
@@ -41531,7 +41919,11 @@
       </c>
       <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr"/>
-      <c r="L1125" t="inlineStr"/>
+      <c r="L1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1125" t="n">
         <v>1</v>
       </c>
@@ -41566,7 +41958,11 @@
       </c>
       <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr"/>
-      <c r="L1126" t="inlineStr"/>
+      <c r="L1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1126" t="n">
         <v>1</v>
       </c>
@@ -41601,7 +41997,11 @@
       </c>
       <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr"/>
-      <c r="L1127" t="inlineStr"/>
+      <c r="L1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1127" t="n">
         <v>1</v>
       </c>
@@ -41636,7 +42036,11 @@
       </c>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr"/>
-      <c r="L1128" t="inlineStr"/>
+      <c r="L1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1128" t="n">
         <v>1</v>
       </c>
@@ -41671,7 +42075,11 @@
       </c>
       <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr"/>
-      <c r="L1129" t="inlineStr"/>
+      <c r="L1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1129" t="n">
         <v>1</v>
       </c>
@@ -41706,7 +42114,11 @@
       </c>
       <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr"/>
-      <c r="L1130" t="inlineStr"/>
+      <c r="L1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1130" t="n">
         <v>1</v>
       </c>
@@ -41741,7 +42153,11 @@
       </c>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr"/>
-      <c r="L1131" t="inlineStr"/>
+      <c r="L1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1131" t="n">
         <v>1</v>
       </c>
@@ -41776,7 +42192,11 @@
       </c>
       <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr"/>
-      <c r="L1132" t="inlineStr"/>
+      <c r="L1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1132" t="n">
         <v>1</v>
       </c>
@@ -41811,7 +42231,11 @@
       </c>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr"/>
-      <c r="L1133" t="inlineStr"/>
+      <c r="L1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1133" t="n">
         <v>1</v>
       </c>
@@ -41846,7 +42270,11 @@
       </c>
       <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr"/>
-      <c r="L1134" t="inlineStr"/>
+      <c r="L1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1134" t="n">
         <v>1</v>
       </c>
@@ -41881,7 +42309,11 @@
       </c>
       <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr"/>
-      <c r="L1135" t="inlineStr"/>
+      <c r="L1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1135" t="n">
         <v>1</v>
       </c>
@@ -41916,7 +42348,11 @@
       </c>
       <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr"/>
-      <c r="L1136" t="inlineStr"/>
+      <c r="L1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1136" t="n">
         <v>1</v>
       </c>
@@ -41951,7 +42387,11 @@
       </c>
       <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr"/>
-      <c r="L1137" t="inlineStr"/>
+      <c r="L1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1137" t="n">
         <v>1</v>
       </c>
@@ -41986,7 +42426,11 @@
       </c>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr"/>
-      <c r="L1138" t="inlineStr"/>
+      <c r="L1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1138" t="n">
         <v>1</v>
       </c>
@@ -42021,7 +42465,11 @@
       </c>
       <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr"/>
-      <c r="L1139" t="inlineStr"/>
+      <c r="L1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1139" t="n">
         <v>1</v>
       </c>
@@ -42056,7 +42504,11 @@
       </c>
       <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr"/>
-      <c r="L1140" t="inlineStr"/>
+      <c r="L1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1140" t="n">
         <v>1</v>
       </c>
@@ -42091,7 +42543,11 @@
       </c>
       <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr"/>
-      <c r="L1141" t="inlineStr"/>
+      <c r="L1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1141" t="n">
         <v>1</v>
       </c>
@@ -42126,7 +42582,11 @@
       </c>
       <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr"/>
-      <c r="L1142" t="inlineStr"/>
+      <c r="L1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1142" t="n">
         <v>1</v>
       </c>
@@ -42161,7 +42621,11 @@
       </c>
       <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr"/>
-      <c r="L1143" t="inlineStr"/>
+      <c r="L1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1143" t="n">
         <v>1</v>
       </c>
@@ -42196,7 +42660,11 @@
       </c>
       <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr"/>
-      <c r="L1144" t="inlineStr"/>
+      <c r="L1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1144" t="n">
         <v>1</v>
       </c>
@@ -42231,7 +42699,11 @@
       </c>
       <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr"/>
-      <c r="L1145" t="inlineStr"/>
+      <c r="L1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1145" t="n">
         <v>1</v>
       </c>
@@ -42266,7 +42738,11 @@
       </c>
       <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr"/>
-      <c r="L1146" t="inlineStr"/>
+      <c r="L1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1146" t="n">
         <v>1</v>
       </c>
@@ -42301,7 +42777,11 @@
       </c>
       <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr"/>
-      <c r="L1147" t="inlineStr"/>
+      <c r="L1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1147" t="n">
         <v>1</v>
       </c>
@@ -42336,7 +42816,11 @@
       </c>
       <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr"/>
-      <c r="L1148" t="inlineStr"/>
+      <c r="L1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1148" t="n">
         <v>1</v>
       </c>
@@ -42371,7 +42855,11 @@
       </c>
       <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr"/>
-      <c r="L1149" t="inlineStr"/>
+      <c r="L1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1149" t="n">
         <v>1</v>
       </c>
@@ -42406,7 +42894,11 @@
       </c>
       <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr"/>
-      <c r="L1150" t="inlineStr"/>
+      <c r="L1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1150" t="n">
         <v>1</v>
       </c>
@@ -42441,7 +42933,11 @@
       </c>
       <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr"/>
-      <c r="L1151" t="inlineStr"/>
+      <c r="L1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1151" t="n">
         <v>1</v>
       </c>
@@ -42476,7 +42972,11 @@
       </c>
       <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr"/>
-      <c r="L1152" t="inlineStr"/>
+      <c r="L1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1152" t="n">
         <v>1</v>
       </c>
@@ -42511,7 +43011,11 @@
       </c>
       <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr"/>
-      <c r="L1153" t="inlineStr"/>
+      <c r="L1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1153" t="n">
         <v>1</v>
       </c>
@@ -42546,7 +43050,11 @@
       </c>
       <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr"/>
-      <c r="L1154" t="inlineStr"/>
+      <c r="L1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1154" t="n">
         <v>1</v>
       </c>
@@ -42581,7 +43089,11 @@
       </c>
       <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr"/>
-      <c r="L1155" t="inlineStr"/>
+      <c r="L1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1155" t="n">
         <v>1</v>
       </c>
@@ -42616,7 +43128,11 @@
       </c>
       <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr"/>
-      <c r="L1156" t="inlineStr"/>
+      <c r="L1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1156" t="n">
         <v>1</v>
       </c>
@@ -42651,7 +43167,11 @@
       </c>
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr"/>
-      <c r="L1157" t="inlineStr"/>
+      <c r="L1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1157" t="n">
         <v>1</v>
       </c>
@@ -42686,7 +43206,11 @@
       </c>
       <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr"/>
-      <c r="L1158" t="inlineStr"/>
+      <c r="L1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1158" t="n">
         <v>1</v>
       </c>
@@ -42721,7 +43245,11 @@
       </c>
       <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr"/>
-      <c r="L1159" t="inlineStr"/>
+      <c r="L1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1159" t="n">
         <v>1</v>
       </c>
@@ -42756,7 +43284,11 @@
       </c>
       <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr"/>
-      <c r="L1160" t="inlineStr"/>
+      <c r="L1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1160" t="n">
         <v>1</v>
       </c>
@@ -42791,7 +43323,11 @@
       </c>
       <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr"/>
-      <c r="L1161" t="inlineStr"/>
+      <c r="L1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1161" t="n">
         <v>1</v>
       </c>
@@ -42826,7 +43362,11 @@
       </c>
       <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr"/>
-      <c r="L1162" t="inlineStr"/>
+      <c r="L1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1162" t="n">
         <v>1</v>
       </c>
@@ -42861,7 +43401,11 @@
       </c>
       <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr"/>
-      <c r="L1163" t="inlineStr"/>
+      <c r="L1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1163" t="n">
         <v>1</v>
       </c>
@@ -42896,7 +43440,11 @@
       </c>
       <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr"/>
-      <c r="L1164" t="inlineStr"/>
+      <c r="L1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1164" t="n">
         <v>1</v>
       </c>
@@ -42931,7 +43479,11 @@
       </c>
       <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr"/>
-      <c r="L1165" t="inlineStr"/>
+      <c r="L1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1165" t="n">
         <v>1</v>
       </c>
@@ -42966,7 +43518,11 @@
       </c>
       <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr"/>
-      <c r="L1166" t="inlineStr"/>
+      <c r="L1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1166" t="n">
         <v>1</v>
       </c>
@@ -43001,7 +43557,11 @@
       </c>
       <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr"/>
-      <c r="L1167" t="inlineStr"/>
+      <c r="L1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1167" t="n">
         <v>1</v>
       </c>
@@ -43036,7 +43596,11 @@
       </c>
       <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr"/>
-      <c r="L1168" t="inlineStr"/>
+      <c r="L1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1168" t="n">
         <v>1</v>
       </c>
@@ -43071,7 +43635,11 @@
       </c>
       <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr"/>
-      <c r="L1169" t="inlineStr"/>
+      <c r="L1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1169" t="n">
         <v>1</v>
       </c>
@@ -43106,7 +43674,11 @@
       </c>
       <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr"/>
-      <c r="L1170" t="inlineStr"/>
+      <c r="L1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1170" t="n">
         <v>1</v>
       </c>
@@ -43141,7 +43713,11 @@
       </c>
       <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr"/>
-      <c r="L1171" t="inlineStr"/>
+      <c r="L1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1171" t="n">
         <v>1</v>
       </c>
@@ -43176,7 +43752,11 @@
       </c>
       <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr"/>
-      <c r="L1172" t="inlineStr"/>
+      <c r="L1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1172" t="n">
         <v>1</v>
       </c>
@@ -43211,7 +43791,11 @@
       </c>
       <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr"/>
-      <c r="L1173" t="inlineStr"/>
+      <c r="L1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1173" t="n">
         <v>1</v>
       </c>
@@ -43246,7 +43830,11 @@
       </c>
       <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr"/>
-      <c r="L1174" t="inlineStr"/>
+      <c r="L1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1174" t="n">
         <v>1</v>
       </c>
@@ -43281,7 +43869,11 @@
       </c>
       <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr"/>
-      <c r="L1175" t="inlineStr"/>
+      <c r="L1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1175" t="n">
         <v>1</v>
       </c>
@@ -43316,7 +43908,11 @@
       </c>
       <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr"/>
-      <c r="L1176" t="inlineStr"/>
+      <c r="L1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1176" t="n">
         <v>1</v>
       </c>
@@ -43351,7 +43947,11 @@
       </c>
       <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr"/>
-      <c r="L1177" t="inlineStr"/>
+      <c r="L1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1177" t="n">
         <v>1</v>
       </c>
@@ -43386,7 +43986,11 @@
       </c>
       <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr"/>
-      <c r="L1178" t="inlineStr"/>
+      <c r="L1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1178" t="n">
         <v>1</v>
       </c>
@@ -43421,7 +44025,11 @@
       </c>
       <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr"/>
-      <c r="L1179" t="inlineStr"/>
+      <c r="L1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1179" t="n">
         <v>1</v>
       </c>
@@ -43456,7 +44064,11 @@
       </c>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr"/>
-      <c r="L1180" t="inlineStr"/>
+      <c r="L1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1180" t="n">
         <v>1</v>
       </c>
@@ -43491,7 +44103,11 @@
       </c>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr"/>
-      <c r="L1181" t="inlineStr"/>
+      <c r="L1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1181" t="n">
         <v>1</v>
       </c>
@@ -43526,7 +44142,11 @@
       </c>
       <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr"/>
-      <c r="L1182" t="inlineStr"/>
+      <c r="L1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1182" t="n">
         <v>1</v>
       </c>
@@ -43561,7 +44181,11 @@
       </c>
       <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr"/>
-      <c r="L1183" t="inlineStr"/>
+      <c r="L1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1183" t="n">
         <v>1</v>
       </c>
@@ -43596,7 +44220,11 @@
       </c>
       <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr"/>
-      <c r="L1184" t="inlineStr"/>
+      <c r="L1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1184" t="n">
         <v>1</v>
       </c>
@@ -43631,7 +44259,11 @@
       </c>
       <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr"/>
-      <c r="L1185" t="inlineStr"/>
+      <c r="L1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1185" t="n">
         <v>1</v>
       </c>
@@ -43666,7 +44298,11 @@
       </c>
       <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr"/>
-      <c r="L1186" t="inlineStr"/>
+      <c r="L1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1186" t="n">
         <v>1</v>
       </c>
@@ -43701,7 +44337,11 @@
       </c>
       <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr"/>
-      <c r="L1187" t="inlineStr"/>
+      <c r="L1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1187" t="n">
         <v>1</v>
       </c>
@@ -43736,7 +44376,11 @@
       </c>
       <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr"/>
-      <c r="L1188" t="inlineStr"/>
+      <c r="L1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1188" t="n">
         <v>1</v>
       </c>
@@ -43771,7 +44415,11 @@
       </c>
       <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr"/>
-      <c r="L1189" t="inlineStr"/>
+      <c r="L1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1189" t="n">
         <v>1</v>
       </c>
@@ -43806,7 +44454,11 @@
       </c>
       <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr"/>
-      <c r="L1190" t="inlineStr"/>
+      <c r="L1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1190" t="n">
         <v>1</v>
       </c>
@@ -43841,7 +44493,11 @@
       </c>
       <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr"/>
-      <c r="L1191" t="inlineStr"/>
+      <c r="L1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1191" t="n">
         <v>1</v>
       </c>
@@ -43869,18 +44525,16 @@
         <v>9416183.333333334</v>
       </c>
       <c r="H1192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1192" t="n">
         <v>0</v>
       </c>
-      <c r="J1192" t="n">
-        <v>9384000</v>
-      </c>
+      <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr"/>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M1192" t="n">
@@ -43910,14 +44564,12 @@
         <v>9415650</v>
       </c>
       <c r="H1193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1193" t="n">
         <v>0</v>
       </c>
-      <c r="J1193" t="n">
-        <v>9385000</v>
-      </c>
+      <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr"/>
       <c r="L1193" t="inlineStr">
         <is>
@@ -43951,14 +44603,12 @@
         <v>9415216.666666666</v>
       </c>
       <c r="H1194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1194" t="n">
         <v>0</v>
       </c>
-      <c r="J1194" t="n">
-        <v>9384000</v>
-      </c>
+      <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr"/>
       <c r="L1194" t="inlineStr">
         <is>
@@ -43992,14 +44642,12 @@
         <v>9414800</v>
       </c>
       <c r="H1195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1195" t="n">
         <v>0</v>
       </c>
-      <c r="J1195" t="n">
-        <v>9389000</v>
-      </c>
+      <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr"/>
       <c r="L1195" t="inlineStr">
         <is>
@@ -44039,7 +44687,7 @@
         <v>0</v>
       </c>
       <c r="J1196" t="n">
-        <v>9393000</v>
+        <v>9396000</v>
       </c>
       <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="inlineStr">
@@ -44080,7 +44728,7 @@
         <v>0</v>
       </c>
       <c r="J1197" t="n">
-        <v>9399000</v>
+        <v>9398000</v>
       </c>
       <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="inlineStr">
@@ -44121,7 +44769,7 @@
         <v>0</v>
       </c>
       <c r="J1198" t="n">
-        <v>9396000</v>
+        <v>9402000</v>
       </c>
       <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="inlineStr">
@@ -44244,7 +44892,7 @@
         <v>0</v>
       </c>
       <c r="J1201" t="n">
-        <v>9399000</v>
+        <v>9404000</v>
       </c>
       <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="inlineStr">
@@ -44402,14 +45050,12 @@
         <v>9411033.333333334</v>
       </c>
       <c r="H1205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1205" t="n">
         <v>0</v>
       </c>
-      <c r="J1205" t="n">
-        <v>9389000</v>
-      </c>
+      <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="inlineStr">
         <is>
@@ -44443,14 +45089,12 @@
         <v>9410716.666666666</v>
       </c>
       <c r="H1206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1206" t="n">
         <v>0</v>
       </c>
-      <c r="J1206" t="n">
-        <v>9399000</v>
-      </c>
+      <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr"/>
       <c r="L1206" t="inlineStr">
         <is>
@@ -44484,14 +45128,12 @@
         <v>9410483.333333334</v>
       </c>
       <c r="H1207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1207" t="n">
         <v>0</v>
       </c>
-      <c r="J1207" t="n">
-        <v>9404000</v>
-      </c>
+      <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr"/>
       <c r="L1207" t="inlineStr">
         <is>
@@ -44525,14 +45167,12 @@
         <v>9410016.666666666</v>
       </c>
       <c r="H1208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1208" t="n">
         <v>0</v>
       </c>
-      <c r="J1208" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr"/>
       <c r="L1208" t="inlineStr">
         <is>
@@ -44566,14 +45206,12 @@
         <v>9409533.333333334</v>
       </c>
       <c r="H1209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1209" t="n">
         <v>0</v>
       </c>
-      <c r="J1209" t="n">
-        <v>9397000</v>
-      </c>
+      <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr"/>
       <c r="L1209" t="inlineStr">
         <is>
@@ -44607,14 +45245,12 @@
         <v>9409116.666666666</v>
       </c>
       <c r="H1210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1210" t="n">
         <v>0</v>
       </c>
-      <c r="J1210" t="n">
-        <v>9395000</v>
-      </c>
+      <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr"/>
       <c r="L1210" t="inlineStr">
         <is>
@@ -44648,14 +45284,12 @@
         <v>9408616.666666666</v>
       </c>
       <c r="H1211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1211" t="n">
         <v>0</v>
       </c>
-      <c r="J1211" t="n">
-        <v>9394000</v>
-      </c>
+      <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr"/>
       <c r="L1211" t="inlineStr">
         <is>
@@ -44689,14 +45323,12 @@
         <v>9407983.333333334</v>
       </c>
       <c r="H1212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1212" t="n">
         <v>0</v>
       </c>
-      <c r="J1212" t="n">
-        <v>9391000</v>
-      </c>
+      <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="inlineStr">
         <is>
@@ -44730,14 +45362,12 @@
         <v>9407383.333333334</v>
       </c>
       <c r="H1213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="n">
         <v>0</v>
       </c>
-      <c r="J1213" t="n">
-        <v>9391000</v>
-      </c>
+      <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="inlineStr">
         <is>
@@ -44771,14 +45401,12 @@
         <v>9406816.666666666</v>
       </c>
       <c r="H1214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="n">
         <v>0</v>
       </c>
-      <c r="J1214" t="n">
-        <v>9393000</v>
-      </c>
+      <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="inlineStr">
         <is>
@@ -44812,14 +45440,12 @@
         <v>9406416.666666666</v>
       </c>
       <c r="H1215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1215" t="n">
         <v>0</v>
       </c>
-      <c r="J1215" t="n">
-        <v>9390000</v>
-      </c>
+      <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="inlineStr">
         <is>
@@ -44853,14 +45479,12 @@
         <v>9405966.666666666</v>
       </c>
       <c r="H1216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1216" t="n">
         <v>0</v>
       </c>
-      <c r="J1216" t="n">
-        <v>9396000</v>
-      </c>
+      <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr"/>
       <c r="L1216" t="inlineStr">
         <is>
@@ -44894,14 +45518,12 @@
         <v>9405516.666666666</v>
       </c>
       <c r="H1217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1217" t="n">
         <v>0</v>
       </c>
-      <c r="J1217" t="n">
-        <v>9396000</v>
-      </c>
+      <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="inlineStr">
         <is>
@@ -44935,14 +45557,12 @@
         <v>9405100</v>
       </c>
       <c r="H1218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1218" t="n">
         <v>0</v>
       </c>
-      <c r="J1218" t="n">
-        <v>9397000</v>
-      </c>
+      <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="inlineStr">
         <is>
@@ -44976,14 +45596,12 @@
         <v>9404866.666666666</v>
       </c>
       <c r="H1219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1219" t="n">
         <v>0</v>
       </c>
-      <c r="J1219" t="n">
-        <v>9400000</v>
-      </c>
+      <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="inlineStr">
         <is>
@@ -45017,14 +45635,12 @@
         <v>9404616.666666666</v>
       </c>
       <c r="H1220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1220" t="n">
         <v>0</v>
       </c>
-      <c r="J1220" t="n">
-        <v>9406000</v>
-      </c>
+      <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="inlineStr">
         <is>
@@ -45058,14 +45674,12 @@
         <v>9404400</v>
       </c>
       <c r="H1221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1221" t="n">
         <v>0</v>
       </c>
-      <c r="J1221" t="n">
-        <v>9406000</v>
-      </c>
+      <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr"/>
       <c r="L1221" t="inlineStr">
         <is>
@@ -45099,14 +45713,12 @@
         <v>9404066.666666666</v>
       </c>
       <c r="H1222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1222" t="n">
         <v>0</v>
       </c>
-      <c r="J1222" t="n">
-        <v>9402000</v>
-      </c>
+      <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr"/>
       <c r="L1222" t="inlineStr">
         <is>
@@ -45140,14 +45752,12 @@
         <v>9403783.333333334</v>
       </c>
       <c r="H1223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1223" t="n">
         <v>0</v>
       </c>
-      <c r="J1223" t="n">
-        <v>9409000</v>
-      </c>
+      <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr"/>
       <c r="L1223" t="inlineStr">
         <is>
@@ -45181,14 +45791,12 @@
         <v>9403400</v>
       </c>
       <c r="H1224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1224" t="n">
         <v>0</v>
       </c>
-      <c r="J1224" t="n">
-        <v>9405000</v>
-      </c>
+      <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr"/>
       <c r="L1224" t="inlineStr">
         <is>
@@ -45222,14 +45830,12 @@
         <v>9403133.333333334</v>
       </c>
       <c r="H1225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1225" t="n">
         <v>0</v>
       </c>
-      <c r="J1225" t="n">
-        <v>9403000</v>
-      </c>
+      <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="inlineStr">
         <is>
@@ -45263,14 +45869,12 @@
         <v>9402883.333333334</v>
       </c>
       <c r="H1226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1226" t="n">
         <v>0</v>
       </c>
-      <c r="J1226" t="n">
-        <v>9410000</v>
-      </c>
+      <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="inlineStr">
         <is>
@@ -45304,14 +45908,12 @@
         <v>9402633.333333334</v>
       </c>
       <c r="H1227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1227" t="n">
         <v>0</v>
       </c>
-      <c r="J1227" t="n">
-        <v>9411000</v>
-      </c>
+      <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="inlineStr">
         <is>
@@ -45345,14 +45947,12 @@
         <v>9402683.333333334</v>
       </c>
       <c r="H1228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1228" t="n">
         <v>0</v>
       </c>
-      <c r="J1228" t="n">
-        <v>9411000</v>
-      </c>
+      <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="inlineStr">
         <is>
@@ -45386,14 +45986,12 @@
         <v>9404233.333333334</v>
       </c>
       <c r="H1229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1229" t="n">
         <v>0</v>
       </c>
-      <c r="J1229" t="n">
-        <v>9424000</v>
-      </c>
+      <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr"/>
       <c r="L1229" t="inlineStr">
         <is>
@@ -45508,18 +46106,16 @@
         <v>0</v>
       </c>
       <c r="I1232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M1232" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M1232" t="inlineStr"/>
     </row>
     <row r="1233">
       <c r="A1233" s="1" t="n">
@@ -45547,15 +46143,11 @@
         <v>0</v>
       </c>
       <c r="I1233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr"/>
-      <c r="L1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1233" t="inlineStr"/>
       <c r="M1233" t="n">
         <v>1</v>
       </c>
@@ -45590,11 +46182,7 @@
       </c>
       <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr"/>
-      <c r="L1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1234" t="inlineStr"/>
       <c r="M1234" t="n">
         <v>1</v>
       </c>
@@ -45629,11 +46217,7 @@
       </c>
       <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr"/>
-      <c r="L1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1235" t="inlineStr"/>
       <c r="M1235" t="n">
         <v>1</v>
       </c>
@@ -45668,11 +46252,7 @@
       </c>
       <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr"/>
-      <c r="L1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1236" t="inlineStr"/>
       <c r="M1236" t="n">
         <v>1</v>
       </c>
@@ -45707,11 +46287,7 @@
       </c>
       <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr"/>
-      <c r="L1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1237" t="inlineStr"/>
       <c r="M1237" t="n">
         <v>1</v>
       </c>
@@ -45746,11 +46322,7 @@
       </c>
       <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr"/>
-      <c r="L1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1238" t="inlineStr"/>
       <c r="M1238" t="n">
         <v>1</v>
       </c>
@@ -45785,11 +46357,7 @@
       </c>
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr"/>
-      <c r="L1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1239" t="inlineStr"/>
       <c r="M1239" t="n">
         <v>1</v>
       </c>
@@ -45824,11 +46392,7 @@
       </c>
       <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr"/>
-      <c r="L1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1240" t="inlineStr"/>
       <c r="M1240" t="n">
         <v>1</v>
       </c>
@@ -45863,11 +46427,7 @@
       </c>
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr"/>
-      <c r="L1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1241" t="inlineStr"/>
       <c r="M1241" t="n">
         <v>1</v>
       </c>
@@ -45902,11 +46462,7 @@
       </c>
       <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr"/>
-      <c r="L1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1242" t="inlineStr"/>
       <c r="M1242" t="n">
         <v>1</v>
       </c>
@@ -45941,11 +46497,7 @@
       </c>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr"/>
-      <c r="L1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1243" t="inlineStr"/>
       <c r="M1243" t="n">
         <v>1</v>
       </c>
@@ -45980,11 +46532,7 @@
       </c>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr"/>
-      <c r="L1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1244" t="inlineStr"/>
       <c r="M1244" t="n">
         <v>1</v>
       </c>
@@ -46019,11 +46567,7 @@
       </c>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr"/>
-      <c r="L1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1245" t="inlineStr"/>
       <c r="M1245" t="n">
         <v>1</v>
       </c>
@@ -46058,11 +46602,7 @@
       </c>
       <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr"/>
-      <c r="L1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1246" t="inlineStr"/>
       <c r="M1246" t="n">
         <v>1</v>
       </c>
@@ -46097,11 +46637,7 @@
       </c>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr"/>
-      <c r="L1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1247" t="inlineStr"/>
       <c r="M1247" t="n">
         <v>1</v>
       </c>
@@ -46136,11 +46672,7 @@
       </c>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr"/>
-      <c r="L1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1248" t="inlineStr"/>
       <c r="M1248" t="n">
         <v>1</v>
       </c>
@@ -46175,11 +46707,7 @@
       </c>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr"/>
-      <c r="L1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1249" t="inlineStr"/>
       <c r="M1249" t="n">
         <v>1</v>
       </c>
@@ -46214,11 +46742,7 @@
       </c>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr"/>
-      <c r="L1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1250" t="inlineStr"/>
       <c r="M1250" t="n">
         <v>1</v>
       </c>
@@ -46253,11 +46777,7 @@
       </c>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr"/>
-      <c r="L1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1251" t="inlineStr"/>
       <c r="M1251" t="n">
         <v>1</v>
       </c>
@@ -46292,11 +46812,7 @@
       </c>
       <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr"/>
-      <c r="L1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1252" t="inlineStr"/>
       <c r="M1252" t="n">
         <v>1</v>
       </c>
@@ -46331,11 +46847,7 @@
       </c>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr"/>
-      <c r="L1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1253" t="inlineStr"/>
       <c r="M1253" t="n">
         <v>1</v>
       </c>
@@ -46370,11 +46882,7 @@
       </c>
       <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr"/>
-      <c r="L1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1254" t="inlineStr"/>
       <c r="M1254" t="n">
         <v>1</v>
       </c>
@@ -46409,11 +46917,7 @@
       </c>
       <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr"/>
-      <c r="L1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1255" t="inlineStr"/>
       <c r="M1255" t="n">
         <v>1</v>
       </c>
@@ -46448,11 +46952,7 @@
       </c>
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr"/>
-      <c r="L1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1256" t="inlineStr"/>
       <c r="M1256" t="n">
         <v>1</v>
       </c>
@@ -46487,11 +46987,7 @@
       </c>
       <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr"/>
-      <c r="L1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1257" t="inlineStr"/>
       <c r="M1257" t="n">
         <v>1</v>
       </c>
@@ -46526,11 +47022,7 @@
       </c>
       <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr"/>
-      <c r="L1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1258" t="inlineStr"/>
       <c r="M1258" t="n">
         <v>1</v>
       </c>
@@ -46565,11 +47057,7 @@
       </c>
       <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr"/>
-      <c r="L1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1259" t="inlineStr"/>
       <c r="M1259" t="n">
         <v>1</v>
       </c>
@@ -46604,11 +47092,7 @@
       </c>
       <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr"/>
-      <c r="L1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1260" t="inlineStr"/>
       <c r="M1260" t="n">
         <v>1</v>
       </c>
@@ -46643,11 +47127,7 @@
       </c>
       <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr"/>
-      <c r="L1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1261" t="inlineStr"/>
       <c r="M1261" t="n">
         <v>1</v>
       </c>
@@ -46682,11 +47162,7 @@
       </c>
       <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr"/>
-      <c r="L1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1262" t="inlineStr"/>
       <c r="M1262" t="n">
         <v>1</v>
       </c>
@@ -46721,11 +47197,7 @@
       </c>
       <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr"/>
-      <c r="L1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1263" t="inlineStr"/>
       <c r="M1263" t="n">
         <v>1</v>
       </c>
@@ -46760,11 +47232,7 @@
       </c>
       <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr"/>
-      <c r="L1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1264" t="inlineStr"/>
       <c r="M1264" t="n">
         <v>1</v>
       </c>
@@ -46799,11 +47267,7 @@
       </c>
       <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr"/>
-      <c r="L1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1265" t="inlineStr"/>
       <c r="M1265" t="n">
         <v>1</v>
       </c>
@@ -46838,11 +47302,7 @@
       </c>
       <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr"/>
-      <c r="L1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1266" t="inlineStr"/>
       <c r="M1266" t="n">
         <v>1</v>
       </c>
@@ -46877,11 +47337,7 @@
       </c>
       <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr"/>
-      <c r="L1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1267" t="inlineStr"/>
       <c r="M1267" t="n">
         <v>1</v>
       </c>
@@ -46916,11 +47372,7 @@
       </c>
       <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr"/>
-      <c r="L1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1268" t="inlineStr"/>
       <c r="M1268" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest BTC.xlsx
+++ b/BackTest/2019-10-19 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1639,17 +1639,11 @@
         <v>-1.717924179999997</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1678,17 +1672,11 @@
         <v>-1.703624179999997</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1717,17 +1705,11 @@
         <v>-1.296024179999997</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1756,17 +1738,11 @@
         <v>-1.296024179999997</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1795,17 +1771,11 @@
         <v>-0.910023079999997</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1834,17 +1804,11 @@
         <v>-5.115923079999996</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9418000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1873,17 +1837,11 @@
         <v>-3.043923079999996</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>9416000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1912,17 +1870,11 @@
         <v>-3.039623079999996</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>9417000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1951,17 +1903,11 @@
         <v>-7.094823079999996</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1994,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2031,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2105,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2142,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2179,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2216,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2253,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2290,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2327,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2364,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2401,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2438,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2475,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2512,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2549,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2582,17 +2464,11 @@
         <v>23.05022922000001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>9440000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2621,17 +2497,11 @@
         <v>21.65372922000001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>9431000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2660,17 +2530,11 @@
         <v>22.00152922000001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2699,17 +2563,11 @@
         <v>31.85482922000001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>9428000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2738,17 +2596,11 @@
         <v>32.18732922000001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>9429000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2777,17 +2629,11 @@
         <v>32.77012922000001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>9430000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2820,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2857,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2894,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2931,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2968,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3005,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3042,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3079,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3116,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3153,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3227,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3264,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3301,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3338,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3375,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3412,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3449,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3486,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3523,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3560,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3597,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3634,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3671,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3708,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3741,16 +3487,14 @@
         <v>35.23076034</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
       <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3776,7 +3520,7 @@
         <v>35.18706034</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4502,7 +4246,7 @@
         <v>20.33971975</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5459,17 +5203,11 @@
         <v>25.45028080000001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5498,17 +5236,11 @@
         <v>26.32478080000001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5537,17 +5269,11 @@
         <v>26.02438080000001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5576,17 +5302,11 @@
         <v>26.59518080000001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>9419000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5615,17 +5335,11 @@
         <v>28.72568080000001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>9422000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5654,17 +5368,11 @@
         <v>28.72568080000001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5693,17 +5401,11 @@
         <v>27.69898080000001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5732,17 +5434,11 @@
         <v>29.14198080000001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>9418000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5775,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5812,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5849,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5886,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5923,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5960,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5997,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6034,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6071,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6108,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6145,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6182,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6219,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6256,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6293,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6330,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6367,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6404,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6437,16 +6061,14 @@
         <v>37.28103934000001</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
       <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
@@ -6637,7 +6259,7 @@
         <v>38.11011455000001</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6670,7 +6292,7 @@
         <v>36.48101455000001</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6703,7 +6325,7 @@
         <v>41.29340743000001</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6769,7 +6391,7 @@
         <v>46.01820743000001</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6802,7 +6424,7 @@
         <v>49.52820743000001</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6835,7 +6457,7 @@
         <v>49.62260743000001</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6868,7 +6490,7 @@
         <v>48.14450743000001</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6901,7 +6523,7 @@
         <v>51.60360743000001</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6934,7 +6556,7 @@
         <v>50.59820743000001</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6967,7 +6589,7 @@
         <v>54.59540743000001</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7099,7 +6721,7 @@
         <v>55.77200743</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7132,7 +6754,7 @@
         <v>63.04950743000001</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7165,7 +6787,7 @@
         <v>63.04950743000001</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7198,7 +6820,7 @@
         <v>63.91550743000001</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7231,7 +6853,7 @@
         <v>56.53120743000001</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7264,7 +6886,7 @@
         <v>56.43990743000001</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7297,7 +6919,7 @@
         <v>53.95014968000001</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7330,7 +6952,7 @@
         <v>40.19204968000001</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7594,14 +7216,10 @@
         <v>39.96494722000001</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="J207" t="n">
-        <v>9441000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
@@ -7634,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7673,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7712,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7751,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7790,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7829,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7868,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7907,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7946,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7985,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8024,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8063,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8102,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8141,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8180,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8219,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8258,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8297,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8336,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8375,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8414,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8453,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8489,19 +7975,13 @@
         <v>47.20606883</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>9441000</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
-        <v>0.9945763160682131</v>
+        <v>1</v>
       </c>
       <c r="M230" t="inlineStr"/>
     </row>
@@ -10112,7 +9592,7 @@
         <v>60.71576987999999</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10145,7 +9625,7 @@
         <v>60.71576987999999</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -12554,17 +12034,11 @@
         <v>45.33758279999999</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>9428000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12597,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12634,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12671,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12708,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12745,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12778,17 +12232,11 @@
         <v>45.17772519999999</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12817,17 +12265,11 @@
         <v>45.00862519999999</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12860,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12897,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12934,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12971,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13008,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13045,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13082,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13119,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +12566,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13193,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13230,11 +12632,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13267,11 +12665,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13304,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13341,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13378,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13415,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13452,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13489,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13526,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13563,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13600,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13637,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13674,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13711,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13748,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13785,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13822,11 +13160,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13859,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13896,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13933,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13970,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14007,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14040,16 +13354,14 @@
         <v>44.22607267999998</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
       <c r="M393" t="inlineStr"/>
     </row>
     <row r="394">
@@ -14240,7 +13552,7 @@
         <v>46.52817257999998</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14273,7 +13585,7 @@
         <v>46.82897257999998</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14306,7 +13618,7 @@
         <v>45.73587257999998</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14339,7 +13651,7 @@
         <v>45.74267239999998</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14372,7 +13684,7 @@
         <v>45.72207616999998</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14405,7 +13717,7 @@
         <v>45.67307837999998</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14438,7 +13750,7 @@
         <v>45.82937644999998</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14471,7 +13783,7 @@
         <v>45.82937644999998</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14504,7 +13816,7 @@
         <v>45.82937644999998</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14537,7 +13849,7 @@
         <v>45.82937644999998</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14570,7 +13882,7 @@
         <v>45.82937644999998</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14603,7 +13915,7 @@
         <v>44.39307644999997</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14636,7 +13948,7 @@
         <v>45.71658453999997</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14669,7 +13981,7 @@
         <v>45.24428453999997</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14702,7 +14014,7 @@
         <v>45.37218453999997</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14735,7 +14047,7 @@
         <v>45.37218453999997</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14768,7 +14080,7 @@
         <v>44.41758453999997</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14801,7 +14113,7 @@
         <v>46.76358453999997</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14834,7 +14146,7 @@
         <v>46.17358453999996</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14867,7 +14179,7 @@
         <v>46.49158453999996</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14900,7 +14212,7 @@
         <v>45.90168453999996</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14933,7 +14245,7 @@
         <v>47.94058453999996</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14966,7 +14278,7 @@
         <v>47.94058453999996</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14999,7 +14311,7 @@
         <v>47.47828453999996</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15032,7 +14344,7 @@
         <v>49.35858453999996</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15065,7 +14377,7 @@
         <v>48.95818453999996</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15098,7 +14410,7 @@
         <v>48.40488453999996</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15131,7 +14443,7 @@
         <v>48.52968453999996</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15164,7 +14476,7 @@
         <v>48.42968453999996</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15197,7 +14509,7 @@
         <v>51.02208453999996</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15230,7 +14542,7 @@
         <v>54.90578453999996</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15263,7 +14575,7 @@
         <v>49.20428453999995</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15296,7 +14608,7 @@
         <v>47.64468453999995</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15329,7 +14641,7 @@
         <v>51.53628453999995</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15362,7 +14674,7 @@
         <v>42.92488807999995</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15395,7 +14707,7 @@
         <v>49.95698790999995</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15428,7 +14740,7 @@
         <v>49.95698790999995</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15461,7 +14773,7 @@
         <v>63.21378790999994</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15494,7 +14806,7 @@
         <v>68.77968790999995</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15527,7 +14839,7 @@
         <v>74.05774565999995</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15560,7 +14872,7 @@
         <v>71.45034565999995</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15593,7 +14905,7 @@
         <v>75.44832149999995</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15626,7 +14938,7 @@
         <v>72.72452149999995</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15659,7 +14971,7 @@
         <v>70.40522149999995</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15692,7 +15004,7 @@
         <v>86.19422144999996</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15989,7 +15301,7 @@
         <v>99.40050819999998</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16022,7 +15334,7 @@
         <v>99.02974717999997</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16055,7 +15367,7 @@
         <v>97.92314717999997</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16088,7 +15400,7 @@
         <v>94.89464717999998</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16121,7 +15433,7 @@
         <v>98.29354717999998</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16154,7 +15466,7 @@
         <v>99.08664717999997</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16187,7 +15499,7 @@
         <v>98.05843449999998</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16253,7 +15565,7 @@
         <v>94.01433449999998</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16286,7 +15598,7 @@
         <v>94.55953449999997</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16319,7 +15631,7 @@
         <v>95.83923449999998</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16517,7 +15829,7 @@
         <v>89.12933449999998</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16550,7 +15862,7 @@
         <v>89.12933449999998</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17177,7 +16489,7 @@
         <v>90.24585707999998</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17210,7 +16522,7 @@
         <v>88.81365707999998</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17243,7 +16555,7 @@
         <v>91.42345707999999</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17276,7 +16588,7 @@
         <v>90.79695708</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17309,7 +16621,7 @@
         <v>91.07915708</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17342,7 +16654,7 @@
         <v>88.48348865</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17441,7 +16753,7 @@
         <v>86.01388865</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17474,7 +16786,7 @@
         <v>86.10018864999999</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17507,7 +16819,7 @@
         <v>86.27468864999999</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17540,7 +16852,7 @@
         <v>85.04618864999999</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17573,7 +16885,7 @@
         <v>87.73338864999999</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17606,7 +16918,7 @@
         <v>87.73338864999999</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17639,7 +16951,7 @@
         <v>86.85658864999999</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17672,7 +16984,7 @@
         <v>88.58778864999999</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17705,7 +17017,7 @@
         <v>88.58778864999999</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17738,7 +17050,7 @@
         <v>86.46888865</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17771,7 +17083,7 @@
         <v>86.93598865</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17804,7 +17116,7 @@
         <v>93.85238864999999</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17837,7 +17149,7 @@
         <v>96.96178864999999</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17870,7 +17182,7 @@
         <v>95.69968864999998</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17903,7 +17215,7 @@
         <v>90.17578864999999</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17936,7 +17248,7 @@
         <v>90.34638864999998</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17969,7 +17281,7 @@
         <v>90.49118864999998</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18002,7 +17314,7 @@
         <v>90.25278864999999</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18035,7 +17347,7 @@
         <v>90.40828864999999</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18068,7 +17380,7 @@
         <v>89.36408875999999</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18101,7 +17413,7 @@
         <v>90.41918886999999</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18134,7 +17446,7 @@
         <v>90.41918886999999</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18167,7 +17479,7 @@
         <v>88.58878886999999</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18200,7 +17512,7 @@
         <v>89.96268886999999</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18233,7 +17545,7 @@
         <v>88.96048886999999</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18266,7 +17578,7 @@
         <v>88.96048886999999</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18299,7 +17611,7 @@
         <v>86.79668887</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18332,7 +17644,7 @@
         <v>79.13258886999999</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18365,7 +17677,7 @@
         <v>67.52888886999999</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18398,7 +17710,7 @@
         <v>56.33238683999999</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -21830,17 +21142,11 @@
         <v>26.19743673000001</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
-      </c>
-      <c r="I629" t="n">
-        <v>9414000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21873,11 +21179,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21906,17 +21208,11 @@
         <v>21.11653673000001</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
-      </c>
-      <c r="I631" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21945,17 +21241,11 @@
         <v>21.11653673000001</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
-      </c>
-      <c r="I632" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21988,11 +21278,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22025,11 +21311,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22058,17 +21340,11 @@
         <v>21.30523673000001</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
-      </c>
-      <c r="I635" t="n">
-        <v>9402000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22097,17 +21373,11 @@
         <v>21.79513673000001</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
-      </c>
-      <c r="I636" t="n">
-        <v>9401000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22136,17 +21406,11 @@
         <v>21.79513673000001</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
-      </c>
-      <c r="I637" t="n">
-        <v>9402000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22175,17 +21439,11 @@
         <v>21.91863673000001</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
-      </c>
-      <c r="I638" t="n">
-        <v>9402000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22214,17 +21472,11 @@
         <v>18.89453673000001</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
-      </c>
-      <c r="I639" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22253,17 +21505,11 @@
         <v>7.785836730000005</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
-      </c>
-      <c r="I640" t="n">
-        <v>9400000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22292,17 +21538,11 @@
         <v>6.914736730000005</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
-      </c>
-      <c r="I641" t="n">
-        <v>9398000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22331,17 +21571,11 @@
         <v>-13.11036326999999</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
-      </c>
-      <c r="I642" t="n">
-        <v>9393000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22370,17 +21604,11 @@
         <v>-6.279963269999993</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
-      </c>
-      <c r="I643" t="n">
-        <v>9385000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22409,17 +21637,11 @@
         <v>-6.779763269999993</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="n">
-        <v>9393000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22448,17 +21670,11 @@
         <v>-6.779763269999993</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="n">
-        <v>9392000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22487,17 +21703,11 @@
         <v>-6.295963369999993</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
-      </c>
-      <c r="I646" t="n">
-        <v>9392000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22526,17 +21736,11 @@
         <v>-6.822563369999993</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
-      </c>
-      <c r="I647" t="n">
-        <v>9395000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22565,17 +21769,11 @@
         <v>-5.974068549999993</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
-      </c>
-      <c r="I648" t="n">
-        <v>9391000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22604,17 +21802,11 @@
         <v>0.9258366300000072</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
-      </c>
-      <c r="I649" t="n">
-        <v>9392000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22643,17 +21835,11 @@
         <v>-7.541563369999992</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
-      </c>
-      <c r="I650" t="n">
-        <v>9401000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22682,17 +21868,11 @@
         <v>-7.541563369999992</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
-      </c>
-      <c r="I651" t="n">
-        <v>9397000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22721,17 +21901,11 @@
         <v>-31.59936336999999</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
-      </c>
-      <c r="I652" t="n">
-        <v>9397000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22760,17 +21934,11 @@
         <v>-31.81256336999999</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
-      </c>
-      <c r="I653" t="n">
-        <v>9396000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22799,17 +21967,11 @@
         <v>-31.60616336999999</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
-      </c>
-      <c r="I654" t="n">
-        <v>9392000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22838,17 +22000,11 @@
         <v>-30.81386336999999</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
-      </c>
-      <c r="I655" t="n">
-        <v>9394000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22877,17 +22033,11 @@
         <v>-31.51226336999999</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
-      </c>
-      <c r="I656" t="n">
-        <v>9399000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22916,17 +22066,11 @@
         <v>-31.71396336999999</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
-      </c>
-      <c r="I657" t="n">
-        <v>9397000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22955,17 +22099,11 @@
         <v>-30.06942394999999</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
-      </c>
-      <c r="I658" t="n">
-        <v>9395000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22994,17 +22132,11 @@
         <v>-30.57332394999999</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
-      </c>
-      <c r="I659" t="n">
-        <v>9398000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23033,17 +22165,11 @@
         <v>-20.90452394999999</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
-      </c>
-      <c r="I660" t="n">
-        <v>9397000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23072,17 +22198,11 @@
         <v>-22.10742394999999</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
-      </c>
-      <c r="I661" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23111,17 +22231,11 @@
         <v>-21.35412394999999</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23150,17 +22264,11 @@
         <v>-21.69092394999999</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
-      </c>
-      <c r="I663" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23189,17 +22297,11 @@
         <v>-21.36112394999999</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
-      </c>
-      <c r="I664" t="n">
-        <v>9402000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23228,17 +22330,11 @@
         <v>-20.03192394999999</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
-      </c>
-      <c r="I665" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23267,17 +22363,11 @@
         <v>-20.49282394999999</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
-      </c>
-      <c r="I666" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23306,17 +22396,11 @@
         <v>-22.62317903999999</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
-      </c>
-      <c r="I667" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23345,17 +22429,11 @@
         <v>-22.62317903999999</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
-      </c>
-      <c r="I668" t="n">
-        <v>9400000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23384,17 +22462,11 @@
         <v>-22.62317903999999</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
-      </c>
-      <c r="I669" t="n">
-        <v>9400000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23423,17 +22495,11 @@
         <v>-22.62317903999999</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
-      </c>
-      <c r="I670" t="n">
-        <v>9400000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23462,17 +22528,11 @@
         <v>-21.55047903999999</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
-      </c>
-      <c r="I671" t="n">
-        <v>9400000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23501,17 +22561,11 @@
         <v>-23.69947903999999</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
-      </c>
-      <c r="I672" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23544,11 +22598,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23581,11 +22631,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23618,11 +22664,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23651,17 +22693,11 @@
         <v>-26.04477903999999</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
-      </c>
-      <c r="I676" t="n">
-        <v>9391000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23690,17 +22726,11 @@
         <v>-25.73277903999999</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
-      </c>
-      <c r="I677" t="n">
-        <v>9389000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23729,17 +22759,11 @@
         <v>-25.28736041999998</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
-      </c>
-      <c r="I678" t="n">
-        <v>9396000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23772,11 +22796,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23805,17 +22825,11 @@
         <v>-29.38856041999998</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
-      </c>
-      <c r="I680" t="n">
-        <v>9397000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23848,11 +22862,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23885,11 +22895,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23918,17 +22924,11 @@
         <v>-31.17886041999998</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
-      </c>
-      <c r="I683" t="n">
-        <v>9400000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23957,17 +22957,11 @@
         <v>-32.26726041999999</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
-      </c>
-      <c r="I684" t="n">
-        <v>9399000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23996,17 +22990,11 @@
         <v>-31.33236041999999</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
-      </c>
-      <c r="I685" t="n">
-        <v>9397000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24035,17 +23023,11 @@
         <v>-30.35132325999999</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
-      </c>
-      <c r="I686" t="n">
-        <v>9399000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24074,17 +23056,11 @@
         <v>-31.27652325999999</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
-      </c>
-      <c r="I687" t="n">
-        <v>9401000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24113,17 +23089,11 @@
         <v>-30.73042325999999</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
-      </c>
-      <c r="I688" t="n">
-        <v>9399000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24156,11 +23126,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24193,11 +23159,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24226,7 +23188,7 @@
         <v>-30.50272336999999</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
         <v>9402000</v>
@@ -24234,7 +23196,7 @@
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L691" t="n">
@@ -24265,7 +23227,7 @@
         <v>-35.82722480999999</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
         <v>9403000</v>
@@ -24304,7 +23266,7 @@
         <v>-37.82722480999999</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I693" t="n">
         <v>9394000</v>
@@ -24343,7 +23305,7 @@
         <v>-40.62402480999999</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I694" t="n">
         <v>9393000</v>
@@ -24382,7 +23344,7 @@
         <v>-39.64702480999999</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I695" t="n">
         <v>9392000</v>
@@ -24421,7 +23383,7 @@
         <v>-38.59282480999999</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I696" t="n">
         <v>9395000</v>
@@ -24460,7 +23422,7 @@
         <v>-39.03752480999999</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I697" t="n">
         <v>9399000</v>
@@ -24499,7 +23461,7 @@
         <v>-33.22172480999998</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
         <v>9395000</v>
@@ -24538,7 +23500,7 @@
         <v>-33.41832480999998</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I699" t="n">
         <v>9400000</v>
@@ -24577,7 +23539,7 @@
         <v>-29.15682480999998</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I700" t="n">
         <v>9394000</v>
@@ -24616,7 +23578,7 @@
         <v>-30.02892480999998</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>9397000</v>
@@ -24655,7 +23617,7 @@
         <v>-31.60212480999998</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I702" t="n">
         <v>9394000</v>
@@ -24694,7 +23656,7 @@
         <v>-34.30474847999998</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>9390000</v>
@@ -24733,7 +23695,7 @@
         <v>-30.11064847999998</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I704" t="n">
         <v>9389000</v>
@@ -24772,7 +23734,7 @@
         <v>-31.55314847999998</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I705" t="n">
         <v>9394000</v>
@@ -24811,7 +23773,7 @@
         <v>-25.02074847999998</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
         <v>9391000</v>
@@ -24850,7 +23812,7 @@
         <v>-25.17224165999998</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I707" t="n">
         <v>9397000</v>
@@ -24889,7 +23851,7 @@
         <v>-24.68114165999998</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I708" t="n">
         <v>9395000</v>
@@ -24928,7 +23890,7 @@
         <v>-25.58434165999998</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
         <v>9396000</v>
@@ -24967,7 +23929,7 @@
         <v>-25.58434165999998</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I710" t="n">
         <v>9394000</v>
@@ -25006,7 +23968,7 @@
         <v>-25.02364165999998</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
         <v>9394000</v>
@@ -25045,7 +24007,7 @@
         <v>-25.02364165999998</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I712" t="n">
         <v>9396000</v>
@@ -25084,7 +24046,7 @@
         <v>-24.52634165999998</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I713" t="n">
         <v>9396000</v>
@@ -25123,7 +24085,7 @@
         <v>-24.35744165999998</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I714" t="n">
         <v>9397000</v>
@@ -25162,7 +24124,7 @@
         <v>-25.30024165999998</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I715" t="n">
         <v>9399000</v>
@@ -25201,7 +24163,7 @@
         <v>-25.30024165999998</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I716" t="n">
         <v>9398000</v>
@@ -25240,7 +24202,7 @@
         <v>-26.60094165999998</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I717" t="n">
         <v>9398000</v>
@@ -25279,7 +24241,7 @@
         <v>-24.78084165999998</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
         <v>9396000</v>
@@ -25318,7 +24280,7 @@
         <v>-23.89024165999998</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I719" t="n">
         <v>9401000</v>
@@ -25357,7 +24319,7 @@
         <v>-23.44674165999998</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I720" t="n">
         <v>9403000</v>
@@ -25396,7 +24358,7 @@
         <v>-23.44674165999998</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I721" t="n">
         <v>9404000</v>
@@ -25435,7 +24397,7 @@
         <v>-23.46924165999998</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I722" t="n">
         <v>9404000</v>
@@ -25474,7 +24436,7 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I723" t="n">
         <v>9402000</v>
@@ -25513,7 +24475,7 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I724" t="n">
         <v>9404000</v>
@@ -25552,7 +24514,7 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I725" t="n">
         <v>9404000</v>
@@ -25591,7 +24553,7 @@
         <v>-19.70493532999998</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I726" t="n">
         <v>9404000</v>
@@ -25630,7 +24592,7 @@
         <v>-11.98693532999998</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I727" t="n">
         <v>9411000</v>
@@ -25669,11 +24631,9 @@
         <v>-9.196835329999978</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
-      </c>
-      <c r="I728" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -25708,11 +24668,9 @@
         <v>-11.48443532999998</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
-      </c>
-      <c r="I729" t="n">
-        <v>9426000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -25747,11 +24705,9 @@
         <v>-8.254835329999977</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
-      </c>
-      <c r="I730" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -25786,11 +24742,9 @@
         <v>-13.19153532999998</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
-      </c>
-      <c r="I731" t="n">
-        <v>9427000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -25825,11 +24779,9 @@
         <v>-4.669035329999977</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
-      </c>
-      <c r="I732" t="n">
-        <v>9426000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -26641,11 +25593,9 @@
         <v>1.338664670000024</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
-      </c>
-      <c r="I754" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -26717,11 +25667,9 @@
         <v>-8.775135329999976</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
-      </c>
-      <c r="I756" t="n">
-        <v>9415000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -26756,11 +25704,9 @@
         <v>-8.199235329999976</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
-      </c>
-      <c r="I757" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -26795,11 +25741,9 @@
         <v>-4.654735329999975</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
-      </c>
-      <c r="I758" t="n">
-        <v>9413000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -26834,11 +25778,9 @@
         <v>-4.249635329999975</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
-      </c>
-      <c r="I759" t="n">
-        <v>9416000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -27539,11 +26481,9 @@
         <v>5.556286740000024</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
-      </c>
-      <c r="I778" t="n">
-        <v>9422000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
@@ -27578,11 +26518,9 @@
         <v>5.556286740000024</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
-      </c>
-      <c r="I779" t="n">
-        <v>9416000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
@@ -27617,11 +26555,9 @@
         <v>6.624286740000024</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
-      </c>
-      <c r="I780" t="n">
-        <v>9416000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
@@ -27656,11 +26592,9 @@
         <v>2.400586740000024</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
-      </c>
-      <c r="I781" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
@@ -27695,11 +26629,9 @@
         <v>2.442084700000024</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
-      </c>
-      <c r="I782" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -27734,11 +26666,9 @@
         <v>0.2471847000000236</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
-      </c>
-      <c r="I783" t="n">
-        <v>9419000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -27773,11 +26703,9 @@
         <v>0.1886847000000236</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
-      </c>
-      <c r="I784" t="n">
-        <v>9418000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -27812,11 +26740,9 @@
         <v>-0.7330152999999764</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
-      </c>
-      <c r="I785" t="n">
-        <v>9415000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -27851,11 +26777,9 @@
         <v>-0.4240067699999764</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
-      </c>
-      <c r="I786" t="n">
-        <v>9414000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -27890,11 +26814,9 @@
         <v>-0.5008067699999764</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
-      </c>
-      <c r="I787" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -27929,11 +26851,9 @@
         <v>-0.2544394699999764</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
-      </c>
-      <c r="I788" t="n">
-        <v>9415000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -28486,11 +27406,9 @@
         <v>-9.286361539999978</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
-      </c>
-      <c r="I803" t="n">
-        <v>9419000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -28525,11 +27443,9 @@
         <v>-9.140599969999979</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
-      </c>
-      <c r="I804" t="n">
-        <v>9417000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -28564,11 +27480,9 @@
         <v>-9.143599969999979</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
-      </c>
-      <c r="I805" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -28603,11 +27517,9 @@
         <v>-9.037599969999979</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
-      </c>
-      <c r="I806" t="n">
-        <v>9416000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -28642,11 +27554,9 @@
         <v>-7.112599969999979</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
-      </c>
-      <c r="I807" t="n">
-        <v>9419000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -28681,11 +27591,9 @@
         <v>-7.78739996999998</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
-      </c>
-      <c r="I808" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -28720,11 +27628,9 @@
         <v>-7.78739996999998</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
-      </c>
-      <c r="I809" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -28759,11 +27665,9 @@
         <v>-7.670699919999979</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
-      </c>
-      <c r="I810" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -28798,11 +27702,9 @@
         <v>-7.670699919999979</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
-      </c>
-      <c r="I811" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -29244,11 +28146,9 @@
         <v>-10.13553205999998</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
-      </c>
-      <c r="I823" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -29283,11 +28183,9 @@
         <v>-10.61063205999998</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
-      </c>
-      <c r="I824" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -29322,11 +28220,9 @@
         <v>-10.40563205999998</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
-      </c>
-      <c r="I825" t="n">
-        <v>9419000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -29361,11 +28257,9 @@
         <v>-10.26163205999998</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
-      </c>
-      <c r="I826" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -29400,11 +28294,9 @@
         <v>-9.829332059999977</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
-      </c>
-      <c r="I827" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -29439,11 +28331,9 @@
         <v>-9.889632059999977</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
-      </c>
-      <c r="I828" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -29478,11 +28368,9 @@
         <v>-10.02183205999998</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
-      </c>
-      <c r="I829" t="n">
-        <v>9422000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -29517,11 +28405,9 @@
         <v>-11.54273205999998</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
-      </c>
-      <c r="I830" t="n">
-        <v>9416000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -29556,11 +28442,9 @@
         <v>-6.763232059999976</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
-      </c>
-      <c r="I831" t="n">
-        <v>9414000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -29595,11 +28479,9 @@
         <v>-7.049232059999976</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
-      </c>
-      <c r="I832" t="n">
-        <v>9422000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -29634,11 +28516,9 @@
         <v>-7.125832059999976</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
-      </c>
-      <c r="I833" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -29673,11 +28553,9 @@
         <v>-6.932132059999976</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
-      </c>
-      <c r="I834" t="n">
-        <v>9419000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -29712,11 +28590,9 @@
         <v>-18.35743205999998</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
-      </c>
-      <c r="I835" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -29751,11 +28627,9 @@
         <v>-18.47602219999997</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
-      </c>
-      <c r="I836" t="n">
-        <v>9414000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -29790,11 +28664,9 @@
         <v>-21.31562221999997</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
-      </c>
-      <c r="I837" t="n">
-        <v>9413000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -29829,11 +28701,9 @@
         <v>-23.58932221999997</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
-      </c>
-      <c r="I838" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -29868,11 +28738,9 @@
         <v>-26.82152221999997</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
-      </c>
-      <c r="I839" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -29907,11 +28775,9 @@
         <v>-25.24162221999997</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
-      </c>
-      <c r="I840" t="n">
-        <v>9403000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -29946,11 +28812,9 @@
         <v>-23.87552861999997</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
-      </c>
-      <c r="I841" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -29985,11 +28849,9 @@
         <v>-24.02512861999997</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
-      </c>
-      <c r="I842" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -30024,11 +28886,9 @@
         <v>-23.62342861999997</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
-      </c>
-      <c r="I843" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -30063,11 +28923,9 @@
         <v>-22.38502861999997</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
-      </c>
-      <c r="I844" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -30102,11 +28960,9 @@
         <v>-22.38502861999997</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
-      </c>
-      <c r="I845" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -30141,11 +28997,9 @@
         <v>-22.29562861999997</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
-      </c>
-      <c r="I846" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -30180,11 +29034,9 @@
         <v>-31.52592861999997</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
-      </c>
-      <c r="I847" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -30219,11 +29071,9 @@
         <v>-31.71312861999997</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
-      </c>
-      <c r="I848" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -30258,11 +29108,9 @@
         <v>-31.67472861999997</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
-      </c>
-      <c r="I849" t="n">
-        <v>9403000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -30297,11 +29145,9 @@
         <v>-32.98472861999997</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
-      </c>
-      <c r="I850" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -30336,11 +29182,9 @@
         <v>-33.03222861999997</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
-      </c>
-      <c r="I851" t="n">
-        <v>9407000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -30375,11 +29219,9 @@
         <v>-32.29122861999997</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
-      </c>
-      <c r="I852" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -30414,11 +29256,9 @@
         <v>-32.29122861999997</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
-      </c>
-      <c r="I853" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -30453,11 +29293,9 @@
         <v>-31.63492861999997</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
-      </c>
-      <c r="I854" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -30492,11 +29330,9 @@
         <v>-31.63492861999997</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
-      </c>
-      <c r="I855" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -30531,11 +29367,9 @@
         <v>-30.78902861999997</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
-      </c>
-      <c r="I856" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -30570,11 +29404,9 @@
         <v>-31.83782861999997</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
-      </c>
-      <c r="I857" t="n">
-        <v>9411000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -30609,11 +29441,9 @@
         <v>-31.83782861999997</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
-      </c>
-      <c r="I858" t="n">
-        <v>9407000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -30648,11 +29478,9 @@
         <v>-31.88942861999997</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
-      </c>
-      <c r="I859" t="n">
-        <v>9407000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -30687,11 +29515,9 @@
         <v>-31.79852861999997</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
-      </c>
-      <c r="I860" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -30726,11 +29552,9 @@
         <v>-32.41462861999997</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
-      </c>
-      <c r="I861" t="n">
-        <v>9411000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -30765,11 +29589,9 @@
         <v>-32.41462861999997</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
-      </c>
-      <c r="I862" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -30804,11 +29626,9 @@
         <v>-32.40512861999996</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
-      </c>
-      <c r="I863" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -30843,11 +29663,9 @@
         <v>-32.40512861999996</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
-      </c>
-      <c r="I864" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -30882,11 +29700,9 @@
         <v>-32.40512861999996</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
-      </c>
-      <c r="I865" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -30921,11 +29737,9 @@
         <v>-32.40512861999996</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
-      </c>
-      <c r="I866" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -30960,11 +29774,9 @@
         <v>-32.40512861999996</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
-      </c>
-      <c r="I867" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -30999,11 +29811,9 @@
         <v>-32.40512861999996</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
-      </c>
-      <c r="I868" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -31038,11 +29848,9 @@
         <v>-32.65762861999996</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
-      </c>
-      <c r="I869" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -31077,11 +29885,9 @@
         <v>-32.65762861999996</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
-      </c>
-      <c r="I870" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -31116,11 +29922,9 @@
         <v>-31.14192861999996</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
-      </c>
-      <c r="I871" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -31155,11 +29959,9 @@
         <v>-31.14192861999996</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
-      </c>
-      <c r="I872" t="n">
-        <v>9413000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -31194,11 +29996,9 @@
         <v>-31.14192861999996</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
-      </c>
-      <c r="I873" t="n">
-        <v>9413000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -31233,11 +30033,9 @@
         <v>-31.90962861999996</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
-      </c>
-      <c r="I874" t="n">
-        <v>9413000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -31272,11 +30070,9 @@
         <v>-31.90962861999996</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
-      </c>
-      <c r="I875" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
@@ -31311,11 +30107,9 @@
         <v>-31.78349603999996</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
-      </c>
-      <c r="I876" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -31350,11 +30144,9 @@
         <v>-27.60502861999996</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
-      </c>
-      <c r="I877" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -31389,11 +30181,9 @@
         <v>-30.86072861999996</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
-      </c>
-      <c r="I878" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -31428,11 +30218,9 @@
         <v>-30.86072861999996</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
-      </c>
-      <c r="I879" t="n">
-        <v>9407000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -31467,11 +30255,9 @@
         <v>-30.86072861999996</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
-      </c>
-      <c r="I880" t="n">
-        <v>9407000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -31506,11 +30292,9 @@
         <v>-30.86072861999996</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
-      </c>
-      <c r="I881" t="n">
-        <v>9407000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -31545,11 +30329,9 @@
         <v>-35.87322861999996</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
-      </c>
-      <c r="I882" t="n">
-        <v>9407000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -31584,11 +30366,9 @@
         <v>-35.57652861999996</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
-      </c>
-      <c r="I883" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -31623,11 +30403,9 @@
         <v>-36.77202861999996</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
-      </c>
-      <c r="I884" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -31662,11 +30440,9 @@
         <v>-37.94352861999997</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
-      </c>
-      <c r="I885" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -31701,11 +30477,9 @@
         <v>-37.94352861999997</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
-      </c>
-      <c r="I886" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -31740,11 +30514,9 @@
         <v>-37.94352861999997</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
-      </c>
-      <c r="I887" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -31779,11 +30551,9 @@
         <v>-38.00672861999997</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
-      </c>
-      <c r="I888" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -31818,11 +30588,9 @@
         <v>-39.19682856999997</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
-      </c>
-      <c r="I889" t="n">
-        <v>9403000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -31857,11 +30625,9 @@
         <v>-35.80692856999997</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
-      </c>
-      <c r="I890" t="n">
-        <v>9401000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
@@ -31896,11 +30662,9 @@
         <v>-35.80692856999997</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
-      </c>
-      <c r="I891" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -31935,11 +30699,9 @@
         <v>-32.41102851999997</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
-      </c>
-      <c r="I892" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -31974,11 +30736,9 @@
         <v>-34.25622851999996</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
-      </c>
-      <c r="I893" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -32013,11 +30773,9 @@
         <v>-34.10372851999996</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
-      </c>
-      <c r="I894" t="n">
-        <v>9407000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -32052,11 +30810,9 @@
         <v>-34.11602851999996</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
-      </c>
-      <c r="I895" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -32091,11 +30847,9 @@
         <v>-30.62632851999997</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
-      </c>
-      <c r="I896" t="n">
-        <v>9407000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -32130,11 +30884,9 @@
         <v>-36.34712851999996</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
-      </c>
-      <c r="I897" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -32169,11 +30921,9 @@
         <v>-35.62562851999996</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
-      </c>
-      <c r="I898" t="n">
-        <v>9401000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -32208,11 +30958,9 @@
         <v>-36.02462851999996</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
-      </c>
-      <c r="I899" t="n">
-        <v>9403000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -32247,11 +30995,9 @@
         <v>-35.93772851999996</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
-      </c>
-      <c r="I900" t="n">
-        <v>9400000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -32286,7 +31032,7 @@
         <v>-39.66182851999996</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I901" t="n">
         <v>9402000</v>
@@ -32325,7 +31071,7 @@
         <v>-38.73832851999997</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I902" t="n">
         <v>9396000</v>
@@ -32364,7 +31110,7 @@
         <v>-38.73832851999997</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I903" t="n">
         <v>9399000</v>
@@ -32403,7 +31149,7 @@
         <v>-38.06312851999997</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I904" t="n">
         <v>9399000</v>
@@ -32442,7 +31188,7 @@
         <v>-38.06312851999997</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I905" t="n">
         <v>9404000</v>
@@ -32481,7 +31227,7 @@
         <v>-38.27412841999997</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I906" t="n">
         <v>9404000</v>
@@ -32520,7 +31266,7 @@
         <v>-33.57832841999997</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I907" t="n">
         <v>9401000</v>
@@ -32559,11 +31305,9 @@
         <v>-33.71222841999997</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
-      </c>
-      <c r="I908" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -32598,11 +31342,9 @@
         <v>-43.48542841999996</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
-      </c>
-      <c r="I909" t="n">
-        <v>9402000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -32637,11 +31379,9 @@
         <v>-39.84152841999996</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
-      </c>
-      <c r="I910" t="n">
-        <v>9398000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -32676,11 +31416,9 @@
         <v>-39.71172841999996</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
-      </c>
-      <c r="I911" t="n">
-        <v>9402000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -32715,11 +31453,9 @@
         <v>-39.81414303999995</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
-      </c>
-      <c r="I912" t="n">
-        <v>9407000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -32754,11 +31490,9 @@
         <v>-40.16044303999995</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
-      </c>
-      <c r="I913" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -32793,11 +31527,9 @@
         <v>-39.77654303999996</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
-      </c>
-      <c r="I914" t="n">
-        <v>9400000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
@@ -32832,11 +31564,9 @@
         <v>-43.17654303999996</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
-      </c>
-      <c r="I915" t="n">
-        <v>9401000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
@@ -32871,7 +31601,7 @@
         <v>-41.86874303999996</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I916" t="n">
         <v>9400000</v>
@@ -32910,7 +31640,7 @@
         <v>-39.75594303999996</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I917" t="n">
         <v>9408000</v>
@@ -32949,11 +31679,9 @@
         <v>-42.67894303999996</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
-      </c>
-      <c r="I918" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -32988,11 +31716,9 @@
         <v>-27.59936989999996</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
-      </c>
-      <c r="I919" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -33027,11 +31753,9 @@
         <v>-29.00946791999996</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
-      </c>
-      <c r="I920" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -33066,11 +31790,9 @@
         <v>-29.65087667999996</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
-      </c>
-      <c r="I921" t="n">
-        <v>9417000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -33105,11 +31827,9 @@
         <v>-29.52727667999996</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
-      </c>
-      <c r="I922" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -33144,11 +31864,9 @@
         <v>-29.00977667999996</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
-      </c>
-      <c r="I923" t="n">
-        <v>9418000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -33183,11 +31901,9 @@
         <v>-29.87017667999996</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
-      </c>
-      <c r="I924" t="n">
-        <v>9419000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -33222,11 +31938,9 @@
         <v>-29.15457667999996</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
-      </c>
-      <c r="I925" t="n">
-        <v>9415000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -33261,11 +31975,9 @@
         <v>-28.93857667999996</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
-      </c>
-      <c r="I926" t="n">
-        <v>9416000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -33300,11 +32012,9 @@
         <v>-27.80547667999996</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
-      </c>
-      <c r="I927" t="n">
-        <v>9417000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -33339,11 +32049,9 @@
         <v>-25.86467667999996</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
-      </c>
-      <c r="I928" t="n">
-        <v>9418000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
@@ -33378,11 +32086,9 @@
         <v>-28.30516989999996</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
-      </c>
-      <c r="I929" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
@@ -33417,11 +32123,9 @@
         <v>-28.02786989999996</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
-      </c>
-      <c r="I930" t="n">
-        <v>9415000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
@@ -33456,11 +32160,9 @@
         <v>-32.63286989999996</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
-      </c>
-      <c r="I931" t="n">
-        <v>9419000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
@@ -33495,11 +32197,9 @@
         <v>-31.30323301999996</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
-      </c>
-      <c r="I932" t="n">
-        <v>9414000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
@@ -33534,11 +32234,9 @@
         <v>-54.82523301999996</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
-      </c>
-      <c r="I933" t="n">
-        <v>9417000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
@@ -33573,11 +32271,9 @@
         <v>-49.80543301999995</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
-      </c>
-      <c r="I934" t="n">
-        <v>9415000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
@@ -33612,11 +32308,9 @@
         <v>-49.80543301999995</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
-      </c>
-      <c r="I935" t="n">
-        <v>9416000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -33651,11 +32345,9 @@
         <v>-49.78601618999996</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
-      </c>
-      <c r="I936" t="n">
-        <v>9416000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -33690,11 +32382,9 @@
         <v>-49.78601618999996</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
-      </c>
-      <c r="I937" t="n">
-        <v>9418000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
@@ -33840,11 +32530,9 @@
         <v>-51.08991618999996</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
-      </c>
-      <c r="I941" t="n">
-        <v>9414000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
@@ -33879,11 +32567,9 @@
         <v>-50.59411644999996</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
-      </c>
-      <c r="I942" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -33918,11 +32604,9 @@
         <v>-50.65471644999996</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
-      </c>
-      <c r="I943" t="n">
-        <v>9417000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
@@ -33957,11 +32641,9 @@
         <v>-50.60811644999996</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
-      </c>
-      <c r="I944" t="n">
-        <v>9413000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
@@ -33996,11 +32678,9 @@
         <v>-50.60811644999996</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
-      </c>
-      <c r="I945" t="n">
-        <v>9417000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
@@ -34035,11 +32715,9 @@
         <v>-50.66751644999996</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
-      </c>
-      <c r="I946" t="n">
-        <v>9417000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -34074,11 +32752,9 @@
         <v>-50.42481644999996</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
-      </c>
-      <c r="I947" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -34113,11 +32789,9 @@
         <v>-51.74791644999996</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
-      </c>
-      <c r="I948" t="n">
-        <v>9417000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -34152,11 +32826,9 @@
         <v>-51.74791644999996</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
-      </c>
-      <c r="I949" t="n">
-        <v>9411000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
@@ -34191,11 +32863,9 @@
         <v>-51.61211644999995</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
-      </c>
-      <c r="I950" t="n">
-        <v>9411000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
@@ -34230,11 +32900,9 @@
         <v>-51.77871644999995</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
-      </c>
-      <c r="I951" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -34269,11 +32937,9 @@
         <v>-51.77461644999995</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
-      </c>
-      <c r="I952" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
@@ -34308,11 +32974,9 @@
         <v>-51.33401644999995</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
-      </c>
-      <c r="I953" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
@@ -34347,11 +33011,9 @@
         <v>-50.69802271999995</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
-      </c>
-      <c r="I954" t="n">
-        <v>9414000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
@@ -34386,11 +33048,9 @@
         <v>-50.83821295999995</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
-      </c>
-      <c r="I955" t="n">
-        <v>9415000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
@@ -34425,11 +33085,9 @@
         <v>-54.12961295999995</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
-      </c>
-      <c r="I956" t="n">
-        <v>9412000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -34464,11 +33122,9 @@
         <v>-54.06251295999995</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
-      </c>
-      <c r="I957" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
@@ -34503,11 +33159,9 @@
         <v>-55.53051295999995</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
-      </c>
-      <c r="I958" t="n">
-        <v>9411000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
@@ -34542,11 +33196,9 @@
         <v>-48.84531295999995</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
-      </c>
-      <c r="I959" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
@@ -34581,11 +33233,9 @@
         <v>-48.85841295999995</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
-      </c>
-      <c r="I960" t="n">
-        <v>9411000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
@@ -34620,11 +33270,9 @@
         <v>-48.81991295999995</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
-      </c>
-      <c r="I961" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
@@ -34659,11 +33307,9 @@
         <v>-43.35811295999996</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
-      </c>
-      <c r="I962" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
@@ -34698,11 +33344,9 @@
         <v>-43.83021295999995</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
-      </c>
-      <c r="I963" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
@@ -34737,11 +33381,9 @@
         <v>-42.18321295999996</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
-      </c>
-      <c r="I964" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
@@ -34776,11 +33418,9 @@
         <v>-42.18321295999996</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
-      </c>
-      <c r="I965" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
@@ -34815,11 +33455,9 @@
         <v>-41.96831295999996</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
-      </c>
-      <c r="I966" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -34854,11 +33492,9 @@
         <v>-42.61241295999996</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
-      </c>
-      <c r="I967" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
@@ -34893,11 +33529,9 @@
         <v>-42.61241295999996</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
-      </c>
-      <c r="I968" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
@@ -34932,11 +33566,9 @@
         <v>-42.59841293999996</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
-      </c>
-      <c r="I969" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
@@ -34971,11 +33603,9 @@
         <v>-43.34931293999996</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
-      </c>
-      <c r="I970" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
@@ -35010,11 +33640,9 @@
         <v>-43.32631293999996</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
-      </c>
-      <c r="I971" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
@@ -35049,11 +33677,9 @@
         <v>-41.08181295999996</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
-      </c>
-      <c r="I972" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
@@ -35088,11 +33714,9 @@
         <v>-42.70501295999996</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
-      </c>
-      <c r="I973" t="n">
-        <v>9411000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
@@ -35127,11 +33751,9 @@
         <v>-47.05441295999996</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
-      </c>
-      <c r="I974" t="n">
-        <v>9410000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
@@ -35166,11 +33788,9 @@
         <v>-46.34531300999996</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
-      </c>
-      <c r="I975" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
@@ -35205,11 +33825,9 @@
         <v>-49.66609869999996</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
-      </c>
-      <c r="I976" t="n">
-        <v>9407000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
@@ -35244,11 +33862,9 @@
         <v>-49.66609869999996</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
-      </c>
-      <c r="I977" t="n">
-        <v>9401000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
@@ -35283,11 +33899,9 @@
         <v>-48.94419869999996</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
-      </c>
-      <c r="I978" t="n">
-        <v>9401000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
@@ -35322,11 +33936,9 @@
         <v>-48.94961305999996</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
-      </c>
-      <c r="I979" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
@@ -35361,11 +33973,9 @@
         <v>-48.84181305999996</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
-      </c>
-      <c r="I980" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
@@ -35400,11 +34010,9 @@
         <v>-49.12611303999996</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
-      </c>
-      <c r="I981" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
@@ -35439,11 +34047,9 @@
         <v>-47.87281303999996</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
-      </c>
-      <c r="I982" t="n">
-        <v>9402000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
@@ -35478,11 +34084,9 @@
         <v>-47.87281303999996</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
-      </c>
-      <c r="I983" t="n">
-        <v>9403000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -35517,7 +34121,7 @@
         <v>-41.72491303999996</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I984" t="n">
         <v>9403000</v>
@@ -35556,11 +34160,9 @@
         <v>-41.92651303999996</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
-      </c>
-      <c r="I985" t="n">
-        <v>9409000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
@@ -35595,7 +34197,7 @@
         <v>-41.73449412999996</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I986" t="n">
         <v>9404000</v>
@@ -35634,11 +34236,9 @@
         <v>-40.90279412999996</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
-      </c>
-      <c r="I987" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
@@ -35673,11 +34273,9 @@
         <v>-40.35539412999996</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
-      </c>
-      <c r="I988" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
@@ -35712,11 +34310,9 @@
         <v>-41.76482257999996</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
-      </c>
-      <c r="I989" t="n">
-        <v>9411000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
@@ -35751,11 +34347,9 @@
         <v>-45.28062257999996</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
-      </c>
-      <c r="I990" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
@@ -35790,11 +34384,9 @@
         <v>-46.07292257999995</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
-      </c>
-      <c r="I991" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
@@ -35829,11 +34421,9 @@
         <v>-45.41852257999995</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
-      </c>
-      <c r="I992" t="n">
-        <v>9405000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
@@ -35868,11 +34458,9 @@
         <v>-47.49032257999995</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
-      </c>
-      <c r="I993" t="n">
-        <v>9408000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
@@ -35907,11 +34495,9 @@
         <v>-47.49032257999995</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
-      </c>
-      <c r="I994" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
@@ -35946,11 +34532,9 @@
         <v>-33.32152257999996</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
-      </c>
-      <c r="I995" t="n">
-        <v>9406000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
@@ -35985,11 +34569,9 @@
         <v>-34.76592257999996</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
-      </c>
-      <c r="I996" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
@@ -36024,11 +34606,9 @@
         <v>-22.77112257999996</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
-      </c>
-      <c r="I997" t="n">
-        <v>9417000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
@@ -36063,11 +34643,9 @@
         <v>-29.65152257999996</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
-      </c>
-      <c r="I998" t="n">
-        <v>9430000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
@@ -36361,11 +34939,9 @@
         <v>-47.42590080999997</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1006" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
@@ -36400,11 +34976,9 @@
         <v>-47.42590080999997</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1007" t="n">
-        <v>9426000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
@@ -36439,11 +35013,9 @@
         <v>-33.02118051999997</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1008" t="n">
-        <v>9426000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
@@ -36478,11 +35050,9 @@
         <v>-25.52808051999997</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1009" t="n">
-        <v>9433000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
@@ -37442,11 +36012,9 @@
         <v>46.43286703000004</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1035" t="n">
-        <v>9431000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
@@ -39664,16 +38232,18 @@
         <v>36.80186834000003</v>
       </c>
       <c r="H1095" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1095" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L1095" t="n">
+        <v>1</v>
+      </c>
       <c r="M1095" t="inlineStr"/>
     </row>
     <row r="1096">
@@ -39699,11 +38269,15 @@
         <v>35.77996834000003</v>
       </c>
       <c r="H1096" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -39732,11 +38306,15 @@
         <v>34.04616834000003</v>
       </c>
       <c r="H1097" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -39769,7 +38347,11 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -39798,11 +38380,15 @@
         <v>33.86426834000002</v>
       </c>
       <c r="H1099" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -39831,11 +38417,15 @@
         <v>26.32906834000002</v>
       </c>
       <c r="H1100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -39864,11 +38454,15 @@
         <v>23.35066834000002</v>
       </c>
       <c r="H1101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -39897,11 +38491,15 @@
         <v>23.35066834000002</v>
       </c>
       <c r="H1102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -39934,7 +38532,11 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -39967,7 +38569,11 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -40000,7 +38606,11 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -40033,7 +38643,11 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -40066,7 +38680,11 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -40099,7 +38717,11 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -40132,7 +38754,11 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -40161,15 +38787,13 @@
         <v>31.99596346000003</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1110" t="n">
-        <v>9433000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1110" t="n">
@@ -40200,11 +38824,9 @@
         <v>31.99596346000003</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1111" t="n">
-        <v>9430000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
@@ -40276,11 +38898,9 @@
         <v>30.29496346000003</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1113" t="n">
-        <v>9427000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
@@ -40315,7 +38935,7 @@
         <v>31.31206346000003</v>
       </c>
       <c r="H1114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -40352,7 +38972,7 @@
         <v>26.86986346000003</v>
       </c>
       <c r="H1115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -40611,11 +39231,9 @@
         <v>21.33576346000002</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1122" t="n">
-        <v>9422000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
@@ -40946,11 +39564,9 @@
         <v>23.32986346000002</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1131" t="n">
-        <v>9420000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
@@ -40985,11 +39601,9 @@
         <v>24.34386346000002</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1132" t="n">
-        <v>9422000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
@@ -41024,11 +39638,9 @@
         <v>24.00056346000002</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1133" t="n">
-        <v>9427000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
@@ -42654,11 +41266,9 @@
         <v>14.66216358000002</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1177" t="n">
-        <v>9427000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
@@ -42693,11 +41303,9 @@
         <v>14.66216358000002</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1178" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
@@ -42732,11 +41340,9 @@
         <v>14.66216358000002</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1179" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
@@ -42771,11 +41377,9 @@
         <v>17.22506358000002</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1180" t="n">
-        <v>9424000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
@@ -43106,11 +41710,9 @@
         <v>23.59036653000002</v>
       </c>
       <c r="H1189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1189" t="n">
-        <v>9418000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
@@ -43330,11 +41932,9 @@
         <v>17.22856648000002</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1195" t="n">
-        <v>9421000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
@@ -44072,11 +42672,9 @@
         <v>28.84252072000002</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1215" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
@@ -44111,11 +42709,9 @@
         <v>28.91752072000002</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1216" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
@@ -44150,11 +42746,9 @@
         <v>28.91752072000002</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1217" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
@@ -44189,11 +42783,9 @@
         <v>28.46980246000002</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1218" t="n">
-        <v>9425000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
@@ -44228,11 +42820,9 @@
         <v>31.27899302000002</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1219" t="n">
-        <v>9422000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
@@ -44785,11 +43375,9 @@
         <v>26.32589164000003</v>
       </c>
       <c r="H1234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1234" t="n">
-        <v>9418000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
@@ -44824,11 +43412,9 @@
         <v>24.59179154000003</v>
       </c>
       <c r="H1235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1235" t="n">
-        <v>9423000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
@@ -45196,11 +43782,9 @@
         <v>8.759868250000036</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>9418000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -45420,9 +44004,11 @@
         <v>-30.80743914999998</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>9380000</v>
+      </c>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
@@ -45457,9 +44043,11 @@
         <v>-32.50553914999998</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>9389000</v>
+      </c>
       <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
@@ -45494,9 +44082,11 @@
         <v>-30.25013914999997</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>9384000</v>
+      </c>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
@@ -45531,9 +44121,11 @@
         <v>-26.31193914999997</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>9389000</v>
+      </c>
       <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
@@ -45568,7 +44160,7 @@
         <v>-23.49293914999997</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1255" t="n">
         <v>9396000</v>
@@ -45607,7 +44199,7 @@
         <v>-22.01247097999997</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1256" t="n">
         <v>9398000</v>
@@ -45646,7 +44238,7 @@
         <v>-23.62087097999997</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1257" t="n">
         <v>9402000</v>
@@ -45685,7 +44277,7 @@
         <v>-22.37911103999997</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1258" t="n">
         <v>9394000</v>
@@ -45724,7 +44316,7 @@
         <v>-20.70831103999997</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1259" t="n">
         <v>9395000</v>
@@ -45763,7 +44355,7 @@
         <v>-22.74551103999997</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1260" t="n">
         <v>9404000</v>
@@ -45802,11 +44394,9 @@
         <v>-27.33840996999997</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1261" t="n">
-        <v>9397000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
@@ -45841,11 +44431,9 @@
         <v>-31.12610996999997</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1262" t="n">
-        <v>9394000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
@@ -45880,11 +44468,9 @@
         <v>-30.96770996999997</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1263" t="n">
-        <v>9389000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
@@ -45919,7 +44505,7 @@
         <v>-28.88950996999997</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1264" t="n">
         <v>9393000</v>
@@ -45958,11 +44544,9 @@
         <v>-28.88950996999997</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1265" t="n">
-        <v>9398000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
@@ -46182,11 +44766,9 @@
         <v>-33.69330996999997</v>
       </c>
       <c r="H1271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1271" t="n">
-        <v>9391000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
@@ -46221,11 +44803,9 @@
         <v>-32.79590996999998</v>
       </c>
       <c r="H1272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1272" t="n">
-        <v>9387000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
@@ -46260,11 +44840,9 @@
         <v>-32.79590996999998</v>
       </c>
       <c r="H1273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1273" t="n">
-        <v>9390000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
@@ -46299,7 +44877,7 @@
         <v>-31.69990996999998</v>
       </c>
       <c r="H1274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1274" t="n">
         <v>9390000</v>
@@ -46338,9 +44916,11 @@
         <v>-34.38460996999998</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>9399000</v>
+      </c>
       <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
@@ -46375,9 +44955,11 @@
         <v>-29.59060996999998</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>9396000</v>
+      </c>
       <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
@@ -47596,7 +46178,7 @@
         <v>103.6007189700001</v>
       </c>
       <c r="H1309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
@@ -47670,7 +46252,7 @@
         <v>103.5521189700001</v>
       </c>
       <c r="H1311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
@@ -47744,7 +46326,7 @@
         <v>94.73462284000007</v>
       </c>
       <c r="H1313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
@@ -47818,7 +46400,7 @@
         <v>89.32802284000007</v>
       </c>
       <c r="H1315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
@@ -47892,18 +46474,16 @@
         <v>92.01270187000009</v>
       </c>
       <c r="H1317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
       <c r="K1317" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1317" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1317" t="inlineStr"/>
       <c r="M1317" t="inlineStr"/>
     </row>
     <row r="1318">
@@ -47929,15 +46509,11 @@
         <v>88.37130187000008</v>
       </c>
       <c r="H1318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
-      <c r="K1318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1318" t="inlineStr"/>
       <c r="L1318" t="n">
         <v>1</v>
       </c>
@@ -47966,15 +46542,11 @@
         <v>88.84490187000009</v>
       </c>
       <c r="H1319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
-      <c r="K1319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1319" t="inlineStr"/>
       <c r="L1319" t="n">
         <v>1</v>
       </c>
@@ -48007,11 +46579,7 @@
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
-      <c r="K1320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1320" t="inlineStr"/>
       <c r="L1320" t="n">
         <v>1</v>
       </c>
@@ -48044,11 +46612,7 @@
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
-      <c r="K1321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1321" t="inlineStr"/>
       <c r="L1321" t="n">
         <v>1</v>
       </c>
@@ -48081,11 +46645,7 @@
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
-      <c r="K1322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1322" t="inlineStr"/>
       <c r="L1322" t="n">
         <v>1</v>
       </c>
@@ -48118,11 +46678,7 @@
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
-      <c r="K1323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1323" t="inlineStr"/>
       <c r="L1323" t="n">
         <v>1</v>
       </c>
@@ -48155,11 +46711,7 @@
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
-      <c r="K1324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1324" t="inlineStr"/>
       <c r="L1324" t="n">
         <v>1</v>
       </c>
@@ -48192,11 +46744,7 @@
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
-      <c r="K1325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1325" t="inlineStr"/>
       <c r="L1325" t="n">
         <v>1</v>
       </c>
@@ -48229,11 +46777,7 @@
       </c>
       <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
-      <c r="K1326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1326" t="inlineStr"/>
       <c r="L1326" t="n">
         <v>1</v>
       </c>
@@ -48266,11 +46810,7 @@
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
-      <c r="K1327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1327" t="inlineStr"/>
       <c r="L1327" t="n">
         <v>1</v>
       </c>
@@ -48303,11 +46843,7 @@
       </c>
       <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
-      <c r="K1328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1328" t="inlineStr"/>
       <c r="L1328" t="n">
         <v>1</v>
       </c>
@@ -48340,11 +46876,7 @@
       </c>
       <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
-      <c r="K1329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1329" t="inlineStr"/>
       <c r="L1329" t="n">
         <v>1</v>
       </c>
@@ -48373,15 +46905,11 @@
         <v>98.93446872000008</v>
       </c>
       <c r="H1330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
-      <c r="K1330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1330" t="inlineStr"/>
       <c r="L1330" t="n">
         <v>1</v>
       </c>
@@ -48414,11 +46942,7 @@
       </c>
       <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
-      <c r="K1331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1331" t="inlineStr"/>
       <c r="L1331" t="n">
         <v>1</v>
       </c>
@@ -48447,15 +46971,11 @@
         <v>98.53656872000008</v>
       </c>
       <c r="H1332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
-      <c r="K1332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1332" t="inlineStr"/>
       <c r="L1332" t="n">
         <v>1</v>
       </c>
@@ -48484,15 +47004,11 @@
         <v>93.99058882000007</v>
       </c>
       <c r="H1333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
-      <c r="K1333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1333" t="inlineStr"/>
       <c r="L1333" t="n">
         <v>1</v>
       </c>
@@ -48521,15 +47037,11 @@
         <v>85.79878882000007</v>
       </c>
       <c r="H1334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
-      <c r="K1334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1334" t="inlineStr"/>
       <c r="L1334" t="n">
         <v>1</v>
       </c>
@@ -48558,15 +47070,11 @@
         <v>89.20958882000006</v>
       </c>
       <c r="H1335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
-      <c r="K1335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1335" t="inlineStr"/>
       <c r="L1335" t="n">
         <v>1</v>
       </c>
@@ -48595,15 +47103,11 @@
         <v>87.58508882000007</v>
       </c>
       <c r="H1336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
-      <c r="K1336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1336" t="inlineStr"/>
       <c r="L1336" t="n">
         <v>1</v>
       </c>
@@ -48632,21 +47136,17 @@
         <v>91.61468882000007</v>
       </c>
       <c r="H1337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
-      <c r="K1337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1337" t="inlineStr"/>
       <c r="L1337" t="n">
         <v>1</v>
       </c>
       <c r="M1337" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest BTC.xlsx
+++ b/BackTest/2019-10-19 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -23188,17 +23188,11 @@
         <v>-30.50272336999999</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
-      </c>
-      <c r="I691" t="n">
-        <v>9402000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23227,17 +23221,11 @@
         <v>-35.82722480999999</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
-      </c>
-      <c r="I692" t="n">
-        <v>9403000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23266,17 +23254,11 @@
         <v>-37.82722480999999</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>9394000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23305,17 +23287,11 @@
         <v>-40.62402480999999</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>9393000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23344,17 +23320,11 @@
         <v>-39.64702480999999</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>9392000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23383,17 +23353,11 @@
         <v>-38.59282480999999</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>9395000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23422,17 +23386,11 @@
         <v>-39.03752480999999</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>9399000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23461,17 +23419,11 @@
         <v>-33.22172480999998</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>9395000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23500,17 +23452,11 @@
         <v>-33.41832480999998</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>9400000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23539,17 +23485,11 @@
         <v>-29.15682480999998</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>9394000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23578,17 +23518,11 @@
         <v>-30.02892480999998</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>9397000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23617,17 +23551,11 @@
         <v>-31.60212480999998</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>9394000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23656,17 +23584,11 @@
         <v>-34.30474847999998</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>9390000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23703,7 +23625,7 @@
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L704" t="n">
@@ -24280,11 +24202,9 @@
         <v>-23.89024165999998</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>9401000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -24319,11 +24239,9 @@
         <v>-23.44674165999998</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>9403000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -24358,11 +24276,9 @@
         <v>-23.44674165999998</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
-      </c>
-      <c r="I721" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -24397,11 +24313,9 @@
         <v>-23.46924165999998</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -24436,11 +24350,9 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
-      </c>
-      <c r="I723" t="n">
-        <v>9402000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -24475,11 +24387,9 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -24514,11 +24424,9 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -24553,11 +24461,9 @@
         <v>-19.70493532999998</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -24592,11 +24498,9 @@
         <v>-11.98693532999998</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>9411000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -30625,9 +30529,11 @@
         <v>-35.80692856999997</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>9401000</v>
+      </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
@@ -30995,9 +30901,11 @@
         <v>-35.93772851999996</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>9400000</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -31305,9 +31213,11 @@
         <v>-33.71222841999997</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>9406000</v>
+      </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -31342,9 +31252,11 @@
         <v>-43.48542841999996</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>9402000</v>
+      </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -31379,9 +31291,11 @@
         <v>-39.84152841999996</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>9398000</v>
+      </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -31416,9 +31330,11 @@
         <v>-39.71172841999996</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>9402000</v>
+      </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -31453,9 +31369,11 @@
         <v>-39.81414303999995</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>9407000</v>
+      </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -31490,9 +31408,11 @@
         <v>-40.16044303999995</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>9404000</v>
+      </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -31527,9 +31447,11 @@
         <v>-39.77654303999996</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>9400000</v>
+      </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
@@ -31564,9 +31486,11 @@
         <v>-43.17654303999996</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>9401000</v>
+      </c>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
@@ -31679,9 +31603,11 @@
         <v>-42.67894303999996</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>9409000</v>
+      </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -33307,9 +33233,11 @@
         <v>-43.35811295999996</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>9408000</v>
+      </c>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
@@ -33381,9 +33309,11 @@
         <v>-42.18321295999996</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>9404000</v>
+      </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
@@ -33418,9 +33348,11 @@
         <v>-42.18321295999996</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
@@ -33455,9 +33387,11 @@
         <v>-41.96831295999996</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -33492,9 +33426,11 @@
         <v>-42.61241295999996</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>9409000</v>
+      </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
@@ -33529,9 +33465,11 @@
         <v>-42.61241295999996</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
@@ -33566,9 +33504,11 @@
         <v>-42.59841293999996</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
@@ -33603,9 +33543,11 @@
         <v>-43.34931293999996</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>9409000</v>
+      </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
@@ -33640,9 +33582,11 @@
         <v>-43.32631293999996</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
@@ -33677,9 +33621,11 @@
         <v>-41.08181295999996</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>9406000</v>
+      </c>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
@@ -33714,9 +33660,11 @@
         <v>-42.70501295999996</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>9411000</v>
+      </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
@@ -33751,9 +33699,11 @@
         <v>-47.05441295999996</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I974" t="n">
+        <v>9410000</v>
+      </c>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
@@ -33788,9 +33738,11 @@
         <v>-46.34531300999996</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
@@ -33825,9 +33777,11 @@
         <v>-49.66609869999996</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>9407000</v>
+      </c>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
@@ -33862,9 +33816,11 @@
         <v>-49.66609869999996</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>9401000</v>
+      </c>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
@@ -33899,9 +33855,11 @@
         <v>-48.94419869999996</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I978" t="n">
+        <v>9401000</v>
+      </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
@@ -33936,9 +33894,11 @@
         <v>-48.94961305999996</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>9406000</v>
+      </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
@@ -33973,9 +33933,11 @@
         <v>-48.84181305999996</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>9404000</v>
+      </c>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
@@ -34010,9 +33972,11 @@
         <v>-49.12611303999996</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
-      </c>
-      <c r="I981" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I981" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
@@ -34047,9 +34011,11 @@
         <v>-47.87281303999996</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>9402000</v>
+      </c>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
@@ -34084,9 +34050,11 @@
         <v>-47.87281303999996</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>9403000</v>
+      </c>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -34160,9 +34128,11 @@
         <v>-41.92651303999996</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>9409000</v>
+      </c>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
@@ -34236,9 +34206,11 @@
         <v>-40.90279412999996</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
@@ -34273,9 +34245,11 @@
         <v>-40.35539412999996</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>9408000</v>
+      </c>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
@@ -34310,9 +34284,11 @@
         <v>-41.76482257999996</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>9411000</v>
+      </c>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
@@ -34347,9 +34323,11 @@
         <v>-45.28062257999996</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>9408000</v>
+      </c>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
@@ -34384,9 +34362,11 @@
         <v>-46.07292257999995</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>9406000</v>
+      </c>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
@@ -34421,9 +34401,11 @@
         <v>-45.41852257999995</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
@@ -34458,9 +34440,11 @@
         <v>-47.49032257999995</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>9408000</v>
+      </c>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
@@ -34495,9 +34479,11 @@
         <v>-47.49032257999995</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I994" t="n">
+        <v>9406000</v>
+      </c>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
@@ -34532,9 +34518,11 @@
         <v>-33.32152257999996</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>9406000</v>
+      </c>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
@@ -34569,9 +34557,11 @@
         <v>-34.76592257999996</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
@@ -34606,9 +34596,11 @@
         <v>-22.77112257999996</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
@@ -44004,11 +43996,9 @@
         <v>-30.80743914999998</v>
       </c>
       <c r="H1251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1251" t="n">
-        <v>9380000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
@@ -44043,11 +44033,9 @@
         <v>-32.50553914999998</v>
       </c>
       <c r="H1252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1252" t="n">
-        <v>9389000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
@@ -44082,11 +44070,9 @@
         <v>-30.25013914999997</v>
       </c>
       <c r="H1253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1253" t="n">
-        <v>9384000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
@@ -44121,11 +44107,9 @@
         <v>-26.31193914999997</v>
       </c>
       <c r="H1254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1254" t="n">
-        <v>9389000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
@@ -44160,11 +44144,9 @@
         <v>-23.49293914999997</v>
       </c>
       <c r="H1255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1255" t="n">
-        <v>9396000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
@@ -44199,11 +44181,9 @@
         <v>-22.01247097999997</v>
       </c>
       <c r="H1256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1256" t="n">
-        <v>9398000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
@@ -44238,11 +44218,9 @@
         <v>-23.62087097999997</v>
       </c>
       <c r="H1257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1257" t="n">
-        <v>9402000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
@@ -44277,11 +44255,9 @@
         <v>-22.37911103999997</v>
       </c>
       <c r="H1258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1258" t="n">
-        <v>9394000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
@@ -44316,11 +44292,9 @@
         <v>-20.70831103999997</v>
       </c>
       <c r="H1259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1259" t="n">
-        <v>9395000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
@@ -44355,11 +44329,9 @@
         <v>-22.74551103999997</v>
       </c>
       <c r="H1260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1260" t="n">
-        <v>9404000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
@@ -44505,11 +44477,9 @@
         <v>-28.88950996999997</v>
       </c>
       <c r="H1264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1264" t="n">
-        <v>9393000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
@@ -44877,11 +44847,9 @@
         <v>-31.69990996999998</v>
       </c>
       <c r="H1274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1274" t="n">
-        <v>9390000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
@@ -44916,11 +44884,9 @@
         <v>-34.38460996999998</v>
       </c>
       <c r="H1275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1275" t="n">
-        <v>9399000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
@@ -44955,11 +44921,9 @@
         <v>-29.59060996999998</v>
       </c>
       <c r="H1276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1276" t="n">
-        <v>9396000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
@@ -46474,16 +46438,18 @@
         <v>92.01270187000009</v>
       </c>
       <c r="H1317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
       <c r="K1317" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1317" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L1317" t="n">
+        <v>1</v>
+      </c>
       <c r="M1317" t="inlineStr"/>
     </row>
     <row r="1318">
@@ -46509,11 +46475,15 @@
         <v>88.37130187000008</v>
       </c>
       <c r="H1318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
-      <c r="K1318" t="inlineStr"/>
+      <c r="K1318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1318" t="n">
         <v>1</v>
       </c>
@@ -46542,11 +46512,15 @@
         <v>88.84490187000009</v>
       </c>
       <c r="H1319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
-      <c r="K1319" t="inlineStr"/>
+      <c r="K1319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1319" t="n">
         <v>1</v>
       </c>
@@ -46575,14 +46549,16 @@
         <v>88.84490187000009</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
-      <c r="K1320" t="inlineStr"/>
-      <c r="L1320" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1320" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1320" t="inlineStr"/>
       <c r="M1320" t="inlineStr"/>
     </row>
     <row r="1321">
@@ -46608,7 +46584,7 @@
         <v>96.24118794000009</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
@@ -46641,7 +46617,7 @@
         <v>94.16178794000008</v>
       </c>
       <c r="H1322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
@@ -46905,7 +46881,7 @@
         <v>98.93446872000008</v>
       </c>
       <c r="H1330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
@@ -46971,7 +46947,7 @@
         <v>98.53656872000008</v>
       </c>
       <c r="H1332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
@@ -47004,7 +46980,7 @@
         <v>93.99058882000007</v>
       </c>
       <c r="H1333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
@@ -47037,7 +47013,7 @@
         <v>85.79878882000007</v>
       </c>
       <c r="H1334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
@@ -47070,7 +47046,7 @@
         <v>89.20958882000006</v>
       </c>
       <c r="H1335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
@@ -47103,7 +47079,7 @@
         <v>87.58508882000007</v>
       </c>
       <c r="H1336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
@@ -47136,7 +47112,7 @@
         <v>91.61468882000007</v>
       </c>
       <c r="H1337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
@@ -47147,6 +47123,6 @@
       <c r="M1337" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest BTC.xlsx
+++ b/BackTest/2019-10-19 BackTest BTC.xlsx
@@ -23188,11 +23188,17 @@
         <v>-30.50272336999999</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>9402000</v>
+      </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23221,11 +23227,17 @@
         <v>-35.82722480999999</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>9403000</v>
+      </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23254,11 +23266,17 @@
         <v>-37.82722480999999</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>9394000</v>
+      </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23287,11 +23305,17 @@
         <v>-40.62402480999999</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>9393000</v>
+      </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23320,11 +23344,17 @@
         <v>-39.64702480999999</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>9392000</v>
+      </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23353,11 +23383,17 @@
         <v>-38.59282480999999</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>9395000</v>
+      </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23386,11 +23422,17 @@
         <v>-39.03752480999999</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>9399000</v>
+      </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23419,11 +23461,17 @@
         <v>-33.22172480999998</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>9395000</v>
+      </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23452,11 +23500,17 @@
         <v>-33.41832480999998</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>9400000</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23485,11 +23539,17 @@
         <v>-29.15682480999998</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>9394000</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +23578,17 @@
         <v>-30.02892480999998</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>9397000</v>
+      </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23551,11 +23617,17 @@
         <v>-31.60212480999998</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>9394000</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23584,11 +23656,17 @@
         <v>-34.30474847999998</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>9390000</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23625,7 +23703,7 @@
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L704" t="n">
@@ -24202,9 +24280,11 @@
         <v>-23.89024165999998</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>9401000</v>
+      </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -24239,9 +24319,11 @@
         <v>-23.44674165999998</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>9403000</v>
+      </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -24276,9 +24358,11 @@
         <v>-23.44674165999998</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>9404000</v>
+      </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -24313,9 +24397,11 @@
         <v>-23.46924165999998</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>9404000</v>
+      </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -24350,9 +24436,11 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>9402000</v>
+      </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -24387,9 +24475,11 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>9404000</v>
+      </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -24424,9 +24514,11 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>9404000</v>
+      </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -24461,9 +24553,11 @@
         <v>-19.70493532999998</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>9404000</v>
+      </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -24498,9 +24592,11 @@
         <v>-11.98693532999998</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>9411000</v>
+      </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -24535,9 +24631,11 @@
         <v>-9.196835329999978</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -24572,9 +24670,11 @@
         <v>-11.48443532999998</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>9426000</v>
+      </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -24609,9 +24709,11 @@
         <v>-8.254835329999977</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -24646,9 +24748,11 @@
         <v>-13.19153532999998</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>9427000</v>
+      </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -24683,9 +24787,11 @@
         <v>-4.669035329999977</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>9426000</v>
+      </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -30455,9 +30561,11 @@
         <v>-38.00672861999997</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>9404000</v>
+      </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -30492,9 +30600,11 @@
         <v>-39.19682856999997</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>9403000</v>
+      </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -30568,9 +30678,11 @@
         <v>-35.80692856999997</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>9404000</v>
+      </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -30605,9 +30717,11 @@
         <v>-32.41102851999997</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>9404000</v>
+      </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -30642,9 +30756,11 @@
         <v>-34.25622851999996</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -30679,9 +30795,11 @@
         <v>-34.10372851999996</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>9407000</v>
+      </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -30716,9 +30834,11 @@
         <v>-34.11602851999996</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -30753,9 +30873,11 @@
         <v>-30.62632851999997</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>9407000</v>
+      </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -30790,9 +30912,11 @@
         <v>-36.34712851999996</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>9409000</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -30827,9 +30951,11 @@
         <v>-35.62562851999996</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>9401000</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -30864,9 +30990,11 @@
         <v>-36.02462851999996</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>9403000</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -31642,9 +31770,11 @@
         <v>-27.59936989999996</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>9405000</v>
+      </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -31679,9 +31809,11 @@
         <v>-29.00946791999996</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>9420000</v>
+      </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -31716,9 +31848,11 @@
         <v>-29.65087667999996</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -31753,9 +31887,11 @@
         <v>-29.52727667999996</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -31790,9 +31926,11 @@
         <v>-29.00977667999996</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>9418000</v>
+      </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -31827,9 +31965,11 @@
         <v>-29.87017667999996</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>9419000</v>
+      </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -31864,9 +32004,11 @@
         <v>-29.15457667999996</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>9415000</v>
+      </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -31901,9 +32043,11 @@
         <v>-28.93857667999996</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>9416000</v>
+      </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -31938,9 +32082,11 @@
         <v>-27.80547667999996</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -31975,9 +32121,11 @@
         <v>-25.86467667999996</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>9418000</v>
+      </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
@@ -32012,9 +32160,11 @@
         <v>-28.30516989999996</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>9421000</v>
+      </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
@@ -32049,9 +32199,11 @@
         <v>-28.02786989999996</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>9415000</v>
+      </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
@@ -32086,9 +32238,11 @@
         <v>-32.63286989999996</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>9419000</v>
+      </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
@@ -32123,9 +32277,11 @@
         <v>-31.30323301999996</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>9414000</v>
+      </c>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
@@ -32160,9 +32316,11 @@
         <v>-54.82523301999996</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
@@ -32197,9 +32355,11 @@
         <v>-49.80543301999995</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>9415000</v>
+      </c>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
@@ -32234,9 +32394,11 @@
         <v>-49.80543301999995</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>9416000</v>
+      </c>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -32271,9 +32433,11 @@
         <v>-49.78601618999996</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>9416000</v>
+      </c>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -32308,9 +32472,11 @@
         <v>-49.78601618999996</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>9418000</v>
+      </c>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
@@ -32345,9 +32511,11 @@
         <v>-50.84191618999996</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>9418000</v>
+      </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
@@ -32382,9 +32550,11 @@
         <v>-51.21801618999996</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>9414000</v>
+      </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
@@ -32419,9 +32589,11 @@
         <v>-51.02541618999996</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>9410000</v>
+      </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
@@ -32456,9 +32628,11 @@
         <v>-51.08991618999996</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>9414000</v>
+      </c>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
@@ -32493,9 +32667,11 @@
         <v>-50.59411644999996</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>9410000</v>
+      </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -32530,9 +32706,11 @@
         <v>-50.65471644999996</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
@@ -32567,9 +32745,11 @@
         <v>-50.60811644999996</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>9413000</v>
+      </c>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
@@ -32604,9 +32784,11 @@
         <v>-50.60811644999996</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
@@ -32641,9 +32823,11 @@
         <v>-50.66751644999996</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -32678,9 +32862,11 @@
         <v>-50.42481644999996</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -32715,9 +32901,11 @@
         <v>-51.74791644999996</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>9417000</v>
+      </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -32752,9 +32940,11 @@
         <v>-51.74791644999996</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>9411000</v>
+      </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
@@ -32789,9 +32979,11 @@
         <v>-51.61211644999995</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>9411000</v>
+      </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
@@ -32826,9 +33018,11 @@
         <v>-51.77871644999995</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -32863,9 +33057,11 @@
         <v>-51.77461644999995</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>9409000</v>
+      </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
@@ -32900,9 +33096,11 @@
         <v>-51.33401644999995</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
@@ -32937,9 +33135,11 @@
         <v>-50.69802271999995</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>9414000</v>
+      </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
@@ -32974,9 +33174,11 @@
         <v>-50.83821295999995</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>9415000</v>
+      </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
@@ -33011,9 +33213,11 @@
         <v>-54.12961295999995</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>9412000</v>
+      </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -33048,9 +33252,11 @@
         <v>-54.06251295999995</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>9409000</v>
+      </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
@@ -33085,9 +33291,11 @@
         <v>-55.53051295999995</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>9411000</v>
+      </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
@@ -33122,9 +33330,11 @@
         <v>-48.84531295999995</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>9410000</v>
+      </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
@@ -33159,9 +33369,11 @@
         <v>-48.85841295999995</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>9411000</v>
+      </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
@@ -33196,9 +33408,11 @@
         <v>-48.81991295999995</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>9406000</v>
+      </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
@@ -33272,9 +33486,11 @@
         <v>-43.83021295999995</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>9410000</v>
+      </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
@@ -34635,9 +34851,11 @@
         <v>-29.65152257999996</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>9430000</v>
+      </c>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
@@ -34672,9 +34890,11 @@
         <v>-28.28052109999996</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>9426000</v>
+      </c>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
@@ -34709,9 +34929,11 @@
         <v>-42.96342109999996</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>9430000</v>
+      </c>
       <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
@@ -34746,9 +34968,11 @@
         <v>-41.88112109999996</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>9425000</v>
+      </c>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
@@ -34783,9 +35007,11 @@
         <v>-45.28292109999996</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>9427000</v>
+      </c>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
@@ -34820,9 +35046,11 @@
         <v>-44.14662109999996</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
@@ -34857,9 +35085,11 @@
         <v>-48.69920080999997</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>9427000</v>
+      </c>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
@@ -34894,9 +35124,11 @@
         <v>-48.02010080999997</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>9424000</v>
+      </c>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
@@ -34931,9 +35163,11 @@
         <v>-47.42590080999997</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>9425000</v>
+      </c>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
@@ -34968,9 +35202,11 @@
         <v>-47.42590080999997</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>9426000</v>
+      </c>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
@@ -35005,9 +35241,11 @@
         <v>-33.02118051999997</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>9426000</v>
+      </c>
       <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
@@ -35042,9 +35280,11 @@
         <v>-25.52808051999997</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>9433000</v>
+      </c>
       <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
@@ -35079,9 +35319,11 @@
         <v>57.63159950000003</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>9439000</v>
+      </c>
       <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
@@ -45846,18 +46088,16 @@
         <v>59.87181897000005</v>
       </c>
       <c r="H1301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
       <c r="K1301" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1301" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1301" t="inlineStr"/>
       <c r="M1301" t="inlineStr"/>
     </row>
     <row r="1302">
@@ -45887,11 +46127,7 @@
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
-      <c r="K1302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1302" t="inlineStr"/>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -45924,11 +46160,7 @@
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
-      <c r="K1303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1303" t="inlineStr"/>
       <c r="L1303" t="n">
         <v>1</v>
       </c>
@@ -45961,11 +46193,7 @@
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
-      <c r="K1304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1304" t="inlineStr"/>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -45998,11 +46226,7 @@
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
-      <c r="K1305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1305" t="inlineStr"/>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -46035,11 +46259,7 @@
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
-      <c r="K1306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1306" t="inlineStr"/>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -46072,11 +46292,7 @@
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
-      <c r="K1307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1307" t="inlineStr"/>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -46109,11 +46325,7 @@
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
-      <c r="K1308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1308" t="inlineStr"/>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -46142,15 +46354,11 @@
         <v>103.6007189700001</v>
       </c>
       <c r="H1309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
-      <c r="K1309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1309" t="inlineStr"/>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
@@ -46179,15 +46387,11 @@
         <v>104.7053189700001</v>
       </c>
       <c r="H1310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
-      <c r="K1310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1310" t="inlineStr"/>
       <c r="L1310" t="n">
         <v>1</v>
       </c>
@@ -46216,15 +46420,11 @@
         <v>103.5521189700001</v>
       </c>
       <c r="H1311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
-      <c r="K1311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1311" t="inlineStr"/>
       <c r="L1311" t="n">
         <v>1</v>
       </c>
@@ -46257,11 +46457,7 @@
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
-      <c r="K1312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1312" t="inlineStr"/>
       <c r="L1312" t="n">
         <v>1</v>
       </c>
@@ -46290,15 +46486,11 @@
         <v>94.73462284000007</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
-      <c r="K1313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1313" t="inlineStr"/>
       <c r="L1313" t="n">
         <v>1</v>
       </c>
@@ -46327,15 +46519,11 @@
         <v>92.61612284000007</v>
       </c>
       <c r="H1314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
-      <c r="K1314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1314" t="inlineStr"/>
       <c r="L1314" t="n">
         <v>1</v>
       </c>
@@ -46364,15 +46552,11 @@
         <v>89.32802284000007</v>
       </c>
       <c r="H1315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
-      <c r="K1315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1315" t="inlineStr"/>
       <c r="L1315" t="n">
         <v>1</v>
       </c>
@@ -46405,11 +46589,7 @@
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
-      <c r="K1316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1316" t="inlineStr"/>
       <c r="L1316" t="n">
         <v>1</v>
       </c>
@@ -46438,15 +46618,11 @@
         <v>92.01270187000009</v>
       </c>
       <c r="H1317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
-      <c r="K1317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1317" t="inlineStr"/>
       <c r="L1317" t="n">
         <v>1</v>
       </c>
@@ -46475,15 +46651,11 @@
         <v>88.37130187000008</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
-      <c r="K1318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1318" t="inlineStr"/>
       <c r="L1318" t="n">
         <v>1</v>
       </c>
@@ -46512,15 +46684,11 @@
         <v>88.84490187000009</v>
       </c>
       <c r="H1319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
-      <c r="K1319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1319" t="inlineStr"/>
       <c r="L1319" t="n">
         <v>1</v>
       </c>
@@ -46549,16 +46717,14 @@
         <v>88.84490187000009</v>
       </c>
       <c r="H1320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
-      <c r="K1320" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1320" t="inlineStr"/>
+      <c r="K1320" t="inlineStr"/>
+      <c r="L1320" t="n">
+        <v>1</v>
+      </c>
       <c r="M1320" t="inlineStr"/>
     </row>
     <row r="1321">
@@ -46617,7 +46783,7 @@
         <v>94.16178794000008</v>
       </c>
       <c r="H1322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
@@ -46650,7 +46816,7 @@
         <v>96.35748794000008</v>
       </c>
       <c r="H1323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
@@ -46716,7 +46882,7 @@
         <v>94.84198794000008</v>
       </c>
       <c r="H1325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
@@ -46782,7 +46948,7 @@
         <v>94.83858794000008</v>
       </c>
       <c r="H1327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
@@ -46848,7 +47014,7 @@
         <v>99.38026872000009</v>
       </c>
       <c r="H1329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
@@ -46881,7 +47047,7 @@
         <v>98.93446872000008</v>
       </c>
       <c r="H1330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
@@ -46914,7 +47080,7 @@
         <v>102.2943687200001</v>
       </c>
       <c r="H1331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
